--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_180.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_180.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33113-d82198-Reviews-Days_Inn_Suites_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-Suites-By-Wyndham-South-Gate.h208212.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_180.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_180.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1088 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r572066488-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>33113</t>
+  </si>
+  <si>
+    <t>82198</t>
+  </si>
+  <si>
+    <t>572066488</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>Pretty straight forward great staff rooms were clean and well equipped, very satisfied with my stayMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Pretty straight forward great staff rooms were clean and well equipped, very satisfied with my stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r568357162-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>568357162</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Police sting...</t>
+  </si>
+  <si>
+    <t>The one and only night I stayed here the police did a prostitution sting in the middle of the night. I could see and hear what was going on through the cracks around my door. There was no weather strip. Between that and cars constantly revving their engines and tractor trailers driving by, I couldn’t sleep. I changed hotels in the morning. Rooms are not nice. Outside looks nice though.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The one and only night I stayed here the police did a prostitution sting in the middle of the night. I could see and hear what was going on through the cracks around my door. There was no weather strip. Between that and cars constantly revving their engines and tractor trailers driving by, I couldn’t sleep. I changed hotels in the morning. Rooms are not nice. Outside looks nice though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r562540832-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>562540832</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>Bed sheets were dirty, our jacuzzi was extremely dirty I had to clean it. Our phone room did not work at all. When my fiancée went to speak to the front staff she said, they couldn’t do anything about it and was beyond rude. I always had chosen days inn as a place to stay but after this experience. Not sure anymore. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Bed sheets were dirty, our jacuzzi was extremely dirty I had to clean it. Our phone room did not work at all. When my fiancée went to speak to the front staff she said, they couldn’t do anything about it and was beyond rude. I always had chosen days inn as a place to stay but after this experience. Not sure anymore. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r543635187-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>543635187</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Excellent Motel</t>
+  </si>
+  <si>
+    <t>Days Inn South Gate is excellent for several reasons: the location, comfort of rooms, friendliness and professionalism of staff and price.  I've stayed here on 2 business trips and highly recommend this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Days Inn South Gate is excellent for several reasons: the location, comfort of rooms, friendliness and professionalism of staff and price.  I've stayed here on 2 business trips and highly recommend this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r540967970-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>540967970</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Ok but could be better</t>
+  </si>
+  <si>
+    <t>When we arrived we found ants in the bathroom, all over the wall and Curtain, no more rooms so we couldn’t switch rooms, she offered a refund, but there was no where else we could go as we had a three day reservation for a family funeral. I don’t let my kids walk barefooted in hotels, even with socks on, my sons grey socks ended up BLACK. Please clean the carpet!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>When we arrived we found ants in the bathroom, all over the wall and Curtain, no more rooms so we couldn’t switch rooms, she offered a refund, but there was no where else we could go as we had a three day reservation for a family funeral. I don’t let my kids walk barefooted in hotels, even with socks on, my sons grey socks ended up BLACK. Please clean the carpet!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r538185050-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>538185050</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>restful</t>
+  </si>
+  <si>
+    <t>Suite was extremely comfortable, spacious, and clean. Friendly and courteous staff. Plan to use it again. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Suite was extremely comfortable, spacious, and clean. Friendly and courteous staff. Plan to use it again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r528075682-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>528075682</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Family Event</t>
+  </si>
+  <si>
+    <t>My husband and I had a great stay always very clean everyone very pleasant sleep was great. Been staying there several times now and will continueMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I had a great stay always very clean everyone very pleasant sleep was great. Been staying there several times now and will continueMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r527596970-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>527596970</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Bed bugs</t>
+  </si>
+  <si>
+    <t>The room we stayed at had bed bugs and ticks on the bed. When we asked the front desk if we could switch rooms or get new sheets anything at all to help us she was not able to help us we had to leave and find another place to stay since the bed had bed bugs and ticks. I would attach the video I recorded if I was able to. I really wanted to like the place but there were ticks and bed bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>The room we stayed at had bed bugs and ticks on the bed. When we asked the front desk if we could switch rooms or get new sheets anything at all to help us she was not able to help us we had to leave and find another place to stay since the bed had bed bugs and ticks. I would attach the video I recorded if I was able to. I really wanted to like the place but there were ticks and bed bugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r526602843-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>526602843</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Descent Price and Location</t>
+  </si>
+  <si>
+    <t>It's one of the cheaper motels in the LA area and overall it's a good place. Housekeeping and other staff are attentive. No self-use laundry on site and the continental breakfast could use a few more choices, but overall a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's one of the cheaper motels in the LA area and overall it's a good place. Housekeeping and other staff are attentive. No self-use laundry on site and the continental breakfast could use a few more choices, but overall a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r522410724-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>522410724</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>i highly recommend!</t>
+  </si>
+  <si>
+    <t>this would be my second time staying here and i love it, the staff is amazing! i love how theyve been upgrading the rooms, really nice &amp; clean. definitely my go to place!  the kids loved going to the pool! so much fun!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>this would be my second time staying here and i love it, the staff is amazing! i love how theyve been upgrading the rooms, really nice &amp; clean. definitely my go to place!  the kids loved going to the pool! so much fun!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r519175292-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>519175292</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Repeat customer</t>
+  </si>
+  <si>
+    <t>Good place to stay expecting a clean room, quiet sleep, ample parking, and closeness to freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Good place to stay expecting a clean room, quiet sleep, ample parking, and closeness to freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r517422906-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>517422906</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Not bad stay</t>
+  </si>
+  <si>
+    <t>I ordered room thought it was prepaid but site did not charge my credit card. called them about 530 about half hour before i was going to lose room for my card not being charged. but that was taken care of. checked in about 1000pm. room was clean no real issues. noise from next room in middle of night. pool was little dirty and very cold. sauna was cold. parking lot was clean. did not take advantage of the breakfast. i left my drivers license and did not find out til next day when my card key did not work and lady said she tried to call me. thought with my drivers license they should have went further for i was in los angeles without my license. but i would stay there. good rateMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>I ordered room thought it was prepaid but site did not charge my credit card. called them about 530 about half hour before i was going to lose room for my card not being charged. but that was taken care of. checked in about 1000pm. room was clean no real issues. noise from next room in middle of night. pool was little dirty and very cold. sauna was cold. parking lot was clean. did not take advantage of the breakfast. i left my drivers license and did not find out til next day when my card key did not work and lady said she tried to call me. thought with my drivers license they should have went further for i was in los angeles without my license. but i would stay there. good rateMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r506884159-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>506884159</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Nasty Hotel Alert</t>
+  </si>
+  <si>
+    <t>By far the WORST Days Inn ever. Staff barely spoke English. The bathroom had mildew stains all over it. Tub was filthy, no actual cover on bed, long strands of hair on bathroom door and sink. No wash cloths, asked for cover and cloths, not understood. Worst part it had a terrible smoke/marijuana smell. Yes it was non-smoking.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>By far the WORST Days Inn ever. Staff barely spoke English. The bathroom had mildew stains all over it. Tub was filthy, no actual cover on bed, long strands of hair on bathroom door and sink. No wash cloths, asked for cover and cloths, not understood. Worst part it had a terrible smoke/marijuana smell. Yes it was non-smoking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r506569311-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>506569311</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>BEWARE BEDBUGS/MITES AT THIS HOTEL !!!</t>
+  </si>
+  <si>
+    <t>Horrible experience , was severely bitten by mites over my stay, contacted manager and only offered a 10% discount , agreed to cover doctor visit and medication when i got back home but no full refund on stay. Will not be staying here again. I work in sales and had to stay home for a week until infection cleared up due to bites. Horrible experience if hotel wants my business again , they will have to make it right and refund my full stay. contact me  solorioangie67@gmail.comMoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Horrible experience , was severely bitten by mites over my stay, contacted manager and only offered a 10% discount , agreed to cover doctor visit and medication when i got back home but no full refund on stay. Will not be staying here again. I work in sales and had to stay home for a week until infection cleared up due to bites. Horrible experience if hotel wants my business again , they will have to make it right and refund my full stay. contact me  solorioangie67@gmail.comMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r505609716-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>505609716</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel nice area</t>
+  </si>
+  <si>
+    <t>I have no complaints. Got to the room late night, but my room was ready for me. I didn't try the breakfast. Overall, my room was spacious and I felt safe in the neighborhood, even coming and going late nights. There are plenty of eateries, gas stations, and a Target/CVS in walking distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>I have no complaints. Got to the room late night, but my room was ready for me. I didn't try the breakfast. Overall, my room was spacious and I felt safe in the neighborhood, even coming and going late nights. There are plenty of eateries, gas stations, and a Target/CVS in walking distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r501656203-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>501656203</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>Used the room for 2 days. Everything was fine except the sink was clogged the WHOLE time. I had to use the shower for everything. You get what you pay for I guess And the front desk people are rude. and the breakfast is WEAK. internet connection was poor as wellMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Used the room for 2 days. Everything was fine except the sink was clogged the WHOLE time. I had to use the shower for everything. You get what you pay for I guess And the front desk people are rude. and the breakfast is WEAK. internet connection was poor as wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r499003792-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>499003792</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Summer vacation</t>
+  </si>
+  <si>
+    <t>ice machine and whirlpool were both broken. Door on fridge would not stay shut. Told front desk. No one ever came to fix entire week we were there.  Beds were a little too firm for my taste.  Air conditioner in room next to us probably needs something done to it. Was draining a ton of water in a big puddle that only got cleaned up once entire time we were there. Wi fi was spotty at best. Their continental breakfast consists of cereal, oatmeal, yogurt, toast, apples, coffee and juice.  No other fruit, no pastries, no waffle makers, nothing else. A couple of better things were it was clean enough and close to a variety of places to eat and a few stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>ice machine and whirlpool were both broken. Door on fridge would not stay shut. Told front desk. No one ever came to fix entire week we were there.  Beds were a little too firm for my taste.  Air conditioner in room next to us probably needs something done to it. Was draining a ton of water in a big puddle that only got cleaned up once entire time we were there. Wi fi was spotty at best. Their continental breakfast consists of cereal, oatmeal, yogurt, toast, apples, coffee and juice.  No other fruit, no pastries, no waffle makers, nothing else. A couple of better things were it was clean enough and close to a variety of places to eat and a few stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r496011307-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>496011307</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Convenient location and comfortable, Atmoshphere at night was loud.</t>
+  </si>
+  <si>
+    <t>Very convenient location and room was nice. Other guest were very loud on first nite. Kid was crying all nite. Adults were talking loud late night until 3am. Very noisey. Days Inn in Hawthorne had a very nice breakfast.They had fresh pastries and they invested in their breakfast. This one had toast and cereal. Very poor choice. Stayed there a week and the hot tub was broken the entire time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Very convenient location and room was nice. Other guest were very loud on first nite. Kid was crying all nite. Adults were talking loud late night until 3am. Very noisey. Days Inn in Hawthorne had a very nice breakfast.They had fresh pastries and they invested in their breakfast. This one had toast and cereal. Very poor choice. Stayed there a week and the hot tub was broken the entire time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r489706816-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>489706816</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>What you should expect for the price</t>
+  </si>
+  <si>
+    <t>The room was clean and quiet. Staff was friendly and competent. Neighborhood was not scary, but that is all I can say about it. "Continental breakfast" was cold cereal, toast, coffee, and . . . nothing else. Free WiFi is offered, but I could not connect my phone to it (Android). An O.K. cheap L.A. hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>The room was clean and quiet. Staff was friendly and competent. Neighborhood was not scary, but that is all I can say about it. "Continental breakfast" was cold cereal, toast, coffee, and . . . nothing else. Free WiFi is offered, but I could not connect my phone to it (Android). An O.K. cheap L.A. hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r487033490-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>487033490</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>I stayed at this property from May 19 to May 21, 2017.  I found it to be an excellent value.  The hotel was clean and comfortable.  It is conveniently located just south of downtown LA.  Since that's where my business appointment was, this property was very convenient and reasonably priced.
+I did not experience any of the problems mentioned by some recent reviewers.  While the lobby was closed when I arrived at 8:00 P.M., I rang the night bell and the receptionist appeared promptly at the night window. I did not experience any rudeness or inappropriate behavior.
+As stated above, the room was clean.  There was no garbage in the room or any other dirt or dirty things.  There were no bed bugs or other creepy-crawly things.  It did not appear that cleaning staff had been in any way negligent.
+The area did not seem unsafe.  There is a great deal of retail in the immediate vicinity.  The area is well lit.  I did not see any shady characters hanging around the area or the property.
+The property is next door to an Arco oil terminal.  There also is a small oil refinery nearby.  However, I did not experience any problems with smoke, fumes or other issues.
+The one complaint previous reviewers have discussed that is somewhat accurate is that this property has a very limited number of TV channels available.  They only have local channels + CNN + ESPN...I stayed at this property from May 19 to May 21, 2017.  I found it to be an excellent value.  The hotel was clean and comfortable.  It is conveniently located just south of downtown LA.  Since that's where my business appointment was, this property was very convenient and reasonably priced.I did not experience any of the problems mentioned by some recent reviewers.  While the lobby was closed when I arrived at 8:00 P.M., I rang the night bell and the receptionist appeared promptly at the night window. I did not experience any rudeness or inappropriate behavior.As stated above, the room was clean.  There was no garbage in the room or any other dirt or dirty things.  There were no bed bugs or other creepy-crawly things.  It did not appear that cleaning staff had been in any way negligent.The area did not seem unsafe.  There is a great deal of retail in the immediate vicinity.  The area is well lit.  I did not see any shady characters hanging around the area or the property.The property is next door to an Arco oil terminal.  There also is a small oil refinery nearby.  However, I did not experience any problems with smoke, fumes or other issues.The one complaint previous reviewers have discussed that is somewhat accurate is that this property has a very limited number of TV channels available.  They only have local channels + CNN + ESPN + 3 Spanish channels.  This was fine for me for a short stay, but might not be enough for some travellers.  Reception on one channel (KCAL, channel 9) was a bit fuzzy, but tolerable.  Reception on all other channels was clear.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this property from May 19 to May 21, 2017.  I found it to be an excellent value.  The hotel was clean and comfortable.  It is conveniently located just south of downtown LA.  Since that's where my business appointment was, this property was very convenient and reasonably priced.
+I did not experience any of the problems mentioned by some recent reviewers.  While the lobby was closed when I arrived at 8:00 P.M., I rang the night bell and the receptionist appeared promptly at the night window. I did not experience any rudeness or inappropriate behavior.
+As stated above, the room was clean.  There was no garbage in the room or any other dirt or dirty things.  There were no bed bugs or other creepy-crawly things.  It did not appear that cleaning staff had been in any way negligent.
+The area did not seem unsafe.  There is a great deal of retail in the immediate vicinity.  The area is well lit.  I did not see any shady characters hanging around the area or the property.
+The property is next door to an Arco oil terminal.  There also is a small oil refinery nearby.  However, I did not experience any problems with smoke, fumes or other issues.
+The one complaint previous reviewers have discussed that is somewhat accurate is that this property has a very limited number of TV channels available.  They only have local channels + CNN + ESPN...I stayed at this property from May 19 to May 21, 2017.  I found it to be an excellent value.  The hotel was clean and comfortable.  It is conveniently located just south of downtown LA.  Since that's where my business appointment was, this property was very convenient and reasonably priced.I did not experience any of the problems mentioned by some recent reviewers.  While the lobby was closed when I arrived at 8:00 P.M., I rang the night bell and the receptionist appeared promptly at the night window. I did not experience any rudeness or inappropriate behavior.As stated above, the room was clean.  There was no garbage in the room or any other dirt or dirty things.  There were no bed bugs or other creepy-crawly things.  It did not appear that cleaning staff had been in any way negligent.The area did not seem unsafe.  There is a great deal of retail in the immediate vicinity.  The area is well lit.  I did not see any shady characters hanging around the area or the property.The property is next door to an Arco oil terminal.  There also is a small oil refinery nearby.  However, I did not experience any problems with smoke, fumes or other issues.The one complaint previous reviewers have discussed that is somewhat accurate is that this property has a very limited number of TV channels available.  They only have local channels + CNN + ESPN + 3 Spanish channels.  This was fine for me for a short stay, but might not be enough for some travellers.  Reception on one channel (KCAL, channel 9) was a bit fuzzy, but tolerable.  Reception on all other channels was clear.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r484146684-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>484146684</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>The lady at the desk named Maria was extremely rude!!</t>
+  </si>
+  <si>
+    <t>We checked in Tues may 9th for 2 nights till Thurs 11th. we decided to add a night, so Wed night we talked to Alexis as we booked another night using trip advisor..  the next morning while I'm at work I get a voicemail saying that i was supposed to be checked out.. and I will be charged $95... When i booked the room for $80... so after work i go to talk to someone, and the lady at the desk named Maria was extremely rude... I tell her the whole story, about how i booked the room and such, she's laughing in my face.. I'm already annoyed, she's hitting her hand on the desk for every word she speaks... she asks me questions and when i try to answer she constantly interrupts me.. I ask for a mgr. She says there's not 1 there.. I ask for a phone number or a mgr name.. she refuses to give it to me... she's still laughing!! By now I'm irate... I start yelling that this is unacceptable.. she asks me if I'm autistic... I couldn't believe it.. now I'm cussing her out.. the hell with being nice! I call days inn/wyndham customer care #.. they can't do anything.. so now I paying $95 for a room I booked for $80.. then to top it off, they charged my card twice.. I call to let them know they charged me 2x, Maria... We checked in Tues may 9th for 2 nights till Thurs 11th. we decided to add a night, so Wed night we talked to Alexis as we booked another night using trip advisor..  the next morning while I'm at work I get a voicemail saying that i was supposed to be checked out.. and I will be charged $95... When i booked the room for $80... so after work i go to talk to someone, and the lady at the desk named Maria was extremely rude... I tell her the whole story, about how i booked the room and such, she's laughing in my face.. I'm already annoyed, she's hitting her hand on the desk for every word she speaks... she asks me questions and when i try to answer she constantly interrupts me.. I ask for a mgr. She says there's not 1 there.. I ask for a phone number or a mgr name.. she refuses to give it to me... she's still laughing!! By now I'm irate... I start yelling that this is unacceptable.. she asks me if I'm autistic... I couldn't believe it.. now I'm cussing her out.. the hell with being nice! I call days inn/wyndham customer care #.. they can't do anything.. so now I paying $95 for a room I booked for $80.. then to top it off, they charged my card twice.. I call to let them know they charged me 2x, Maria answered, and says "oh it's you"... whatever, I'm being nice... she tells me that debit cards always get charged twice... which she's lying, cause for my 1st 2 nights there, I didn't get charged twice by Alexis.... only by the lady shaped like a rhino asking customers if they're autistic named "Maria"... other than her, everything was pretty good... days inn in south gate, please replace Maria cause she's making your business look extremely bad! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>We checked in Tues may 9th for 2 nights till Thurs 11th. we decided to add a night, so Wed night we talked to Alexis as we booked another night using trip advisor..  the next morning while I'm at work I get a voicemail saying that i was supposed to be checked out.. and I will be charged $95... When i booked the room for $80... so after work i go to talk to someone, and the lady at the desk named Maria was extremely rude... I tell her the whole story, about how i booked the room and such, she's laughing in my face.. I'm already annoyed, she's hitting her hand on the desk for every word she speaks... she asks me questions and when i try to answer she constantly interrupts me.. I ask for a mgr. She says there's not 1 there.. I ask for a phone number or a mgr name.. she refuses to give it to me... she's still laughing!! By now I'm irate... I start yelling that this is unacceptable.. she asks me if I'm autistic... I couldn't believe it.. now I'm cussing her out.. the hell with being nice! I call days inn/wyndham customer care #.. they can't do anything.. so now I paying $95 for a room I booked for $80.. then to top it off, they charged my card twice.. I call to let them know they charged me 2x, Maria... We checked in Tues may 9th for 2 nights till Thurs 11th. we decided to add a night, so Wed night we talked to Alexis as we booked another night using trip advisor..  the next morning while I'm at work I get a voicemail saying that i was supposed to be checked out.. and I will be charged $95... When i booked the room for $80... so after work i go to talk to someone, and the lady at the desk named Maria was extremely rude... I tell her the whole story, about how i booked the room and such, she's laughing in my face.. I'm already annoyed, she's hitting her hand on the desk for every word she speaks... she asks me questions and when i try to answer she constantly interrupts me.. I ask for a mgr. She says there's not 1 there.. I ask for a phone number or a mgr name.. she refuses to give it to me... she's still laughing!! By now I'm irate... I start yelling that this is unacceptable.. she asks me if I'm autistic... I couldn't believe it.. now I'm cussing her out.. the hell with being nice! I call days inn/wyndham customer care #.. they can't do anything.. so now I paying $95 for a room I booked for $80.. then to top it off, they charged my card twice.. I call to let them know they charged me 2x, Maria answered, and says "oh it's you"... whatever, I'm being nice... she tells me that debit cards always get charged twice... which she's lying, cause for my 1st 2 nights there, I didn't get charged twice by Alexis.... only by the lady shaped like a rhino asking customers if they're autistic named "Maria"... other than her, everything was pretty good... days inn in south gate, please replace Maria cause she's making your business look extremely bad! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r475982216-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>475982216</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>This days inn was ok, the next days inn I stayed a day after was a disaster.</t>
+  </si>
+  <si>
+    <t>Days Inn &amp; Suites South Gate8821 Garfield Ave :Bed bugs infested place. The worst ever experience in my life. Awful old furniture that practically falls apart in pieces. Filthy carpeted floor, restrooms in non smoking room smells like a bottom rock disgusting ash tray. Had to run the fan for several hours and still worst smelling premise. Everything would have been bearable if only not the constant police activity inside the hotel. It looks like danger gang activity hotel. Although we paid well over $200 dollars for only 3 nights we were fooled by misleading star rating reviews. Woke up 3 am with itching arm, then shoulder and finally my right ear. The most outrageous nasty stay in whole world of hotel businesses. My second arm was bitten by bed bugs while we were trying to gather things and check out. Bugs were attacking us all the night long. Front desk could not switch the room or at least get another clean place. Instead the lady said if you found one there should not be many, those are groups. Also she added that If I found one bug then that's probably the only one that was there. So, no big deal? Or no big surprise for front desk about infected rooms?Less then 1 star hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Days Inn &amp; Suites South Gate8821 Garfield Ave :Bed bugs infested place. The worst ever experience in my life. Awful old furniture that practically falls apart in pieces. Filthy carpeted floor, restrooms in non smoking room smells like a bottom rock disgusting ash tray. Had to run the fan for several hours and still worst smelling premise. Everything would have been bearable if only not the constant police activity inside the hotel. It looks like danger gang activity hotel. Although we paid well over $200 dollars for only 3 nights we were fooled by misleading star rating reviews. Woke up 3 am with itching arm, then shoulder and finally my right ear. The most outrageous nasty stay in whole world of hotel businesses. My second arm was bitten by bed bugs while we were trying to gather things and check out. Bugs were attacking us all the night long. Front desk could not switch the room or at least get another clean place. Instead the lady said if you found one there should not be many, those are groups. Also she added that If I found one bug then that's probably the only one that was there. So, no big deal? Or no big surprise for front desk about infected rooms?Less then 1 star hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r473190681-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>473190681</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Night Stay</t>
+  </si>
+  <si>
+    <t>Room was a bit smelly and the TV not at all good. I could barely see things clearly. Advertised for great smart TV, but was not. NEEDS TO IMPROVE TV.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was a bit smelly and the TV not at all good. I could barely see things clearly. Advertised for great smart TV, but was not. NEEDS TO IMPROVE TV.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r472976232-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>472976232</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>We love it!</t>
+  </si>
+  <si>
+    <t>My fiancé and I have decided this is our favorite get away spot when we need a low alone time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>My fiancé and I have decided this is our favorite get away spot when we need a low alone time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r455070267-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>455070267</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Not that great</t>
+  </si>
+  <si>
+    <t>The room had ants, it smelled so bad the breakfast area in the lobby and dog poop from night before, they wouldn't give me an extra towel when I asked I was double charges.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>The room had ants, it smelled so bad the breakfast area in the lobby and dog poop from night before, they wouldn't give me an extra towel when I asked I was double charges.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r449964229-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>449964229</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Easy access to everywhere we wanted to go, simple motel, breakfast was a big disappointment,</t>
+  </si>
+  <si>
+    <t>Great location for Rose Bowl, Lia Angeles, Disney, and other things, basic room, breakfast was huge disappointment!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Great location for Rose Bowl, Lia Angeles, Disney, and other things, basic room, breakfast was huge disappointment!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r445740170-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>445740170</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Trashy</t>
+  </si>
+  <si>
+    <t>The room was not very clean, there was trash from prior guests. Not a place for diabetics breakfast was all carbs.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>The room was not very clean, there was trash from prior guests. Not a place for diabetics breakfast was all carbs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r432803594-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>432803594</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Excellent Again</t>
+  </si>
+  <si>
+    <t>Second time visiting California and I stayed here again. Enjoyed the breakfast and room was great once again! Staff was also very accommodating! I definitely plan on staying here again for my next visit to California!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Second time visiting California and I stayed here again. Enjoyed the breakfast and room was great once again! Staff was also very accommodating! I definitely plan on staying here again for my next visit to California!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r431261564-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>431261564</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Worst overall</t>
+  </si>
+  <si>
+    <t>Service at night window was unfriendly. He forgot to do the basic step of programming card to room. Looked busy with his phone. Room was dirty and everything looks out-dated...MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Service at night window was unfriendly. He forgot to do the basic step of programming card to room. Looked busy with his phone. Room was dirty and everything looks out-dated...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r431250864-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>431250864</t>
+  </si>
+  <si>
+    <t>Weekend get away</t>
+  </si>
+  <si>
+    <t>Very nice lil noisy kids running around yelling in the room above us and the bathroom was smelly other then that great and one more thing PLEASE GET BETTER CHANNELS.  THANK YOU. OTHER THAN AWESOME STAY NO REGRET'S. MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice lil noisy kids running around yelling in the room above us and the bathroom was smelly other then that great and one more thing PLEASE GET BETTER CHANNELS.  THANK YOU. OTHER THAN AWESOME STAY NO REGRET'S. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r421640156-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>421640156</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Our stay at Days Inn in South Gate, CA was delightful!  The accommodations were just what was described and shown on their website.  We stayed in a disability accommodation room which had all of the safety precautions in place--it was a large spacious room that accommodated walker or wheelchair needs.  The staff were very friendly and helpful.  The Inn was central for our visiting needs and had all facets of entertainment and eateries within easy travel reach.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Our stay at Days Inn in South Gate, CA was delightful!  The accommodations were just what was described and shown on their website.  We stayed in a disability accommodation room which had all of the safety precautions in place--it was a large spacious room that accommodated walker or wheelchair needs.  The staff were very friendly and helpful.  The Inn was central for our visiting needs and had all facets of entertainment and eateries within easy travel reach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r420371930-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>420371930</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>The dirtiest hotel ever</t>
+  </si>
+  <si>
+    <t>Covered with filth; disgustingly dirty, no breakfast, empty coffee pots with some french toast.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Covered with filth; disgustingly dirty, no breakfast, empty coffee pots with some french toast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r420208726-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>420208726</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Came to visit family. They recommended this hotel. I stayed for a week. Rooms were nice. nice breakfast. Great location.  Friendly Staff. I would definitely stay here again. I would recommned this hotel to my family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Came to visit family. They recommended this hotel. I stayed for a week. Rooms were nice. nice breakfast. Great location.  Friendly Staff. I would definitely stay here again. I would recommned this hotel to my family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r404938526-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>404938526</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Room not ready upon arrival...</t>
+  </si>
+  <si>
+    <t>Called front desk to resolvean issue with tv and could fix it....Also arrived at 1 and room was not ready but they do expect us to returned at 11 am next day and if they haven't seen you they call to remind we have to leave...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Called front desk to resolvean issue with tv and could fix it....Also arrived at 1 and room was not ready but they do expect us to returned at 11 am next day and if they haven't seen you they call to remind we have to leave...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r401366774-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>401366774</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>terrbile</t>
+  </si>
+  <si>
+    <t>i was not treat with respect,the pillow for sleeping was very very bad and i did not sleep good.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>i was not treat with respect,the pillow for sleeping was very very bad and i did not sleep good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r399609240-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>399609240</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r392333214-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>392333214</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Definetly will be coming back</t>
+  </si>
+  <si>
+    <t>I had a very good experience at this hotel. I was only there for 2 nights and the room was very clean, bed was comfortable, and the staff was very friendly and helpful. They answered all my questions when needed. Parking was easy and the location was great. Many eating places in close distance. Overall, I would definitely recommend this hotel for your next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>I had a very good experience at this hotel. I was only there for 2 nights and the room was very clean, bed was comfortable, and the staff was very friendly and helpful. They answered all my questions when needed. Parking was easy and the location was great. Many eating places in close distance. Overall, I would definitely recommend this hotel for your next stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r391902596-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>391902596</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Dirty and broken</t>
+  </si>
+  <si>
+    <t>Furniture was broken, graffiti scrawled in the bedside table drawer, previous guest's soap was still in the shower, tv remote didn't work, only one ice machine for the whole hotel and it was broken, and the next morning when I went to leave the room, the door wouldn't lock.MoreShow less</t>
+  </si>
+  <si>
+    <t>Furniture was broken, graffiti scrawled in the bedside table drawer, previous guest's soap was still in the shower, tv remote didn't work, only one ice machine for the whole hotel and it was broken, and the next morning when I went to leave the room, the door wouldn't lock.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r387981649-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>387981649</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Weekend Trip California</t>
+  </si>
+  <si>
+    <t>Hotel was excellent for the price! Location was perfect and the front desk accommodated any request I had. It was extremely clean. The hotel provided a free breakfast which had many different items to choose from. Generally parking isn't free in California so that was a plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded July 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was excellent for the price! Location was perfect and the front desk accommodated any request I had. It was extremely clean. The hotel provided a free breakfast which had many different items to choose from. Generally parking isn't free in California so that was a plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r371958812-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>371958812</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Stinky rooms</t>
+  </si>
+  <si>
+    <t>Came here with family, were planning to stay for 5 days. As soon as came into the room realized that we cannot stay here for that long. Room smells really bad.Also room has all old stuff like furniture, tv, dryer everything is from 80th.      This place is not for long term vacations.  It is not worth 110 dollars.MoreShow less</t>
+  </si>
+  <si>
+    <t>Came here with family, were planning to stay for 5 days. As soon as came into the room realized that we cannot stay here for that long. Room smells really bad.Also room has all old stuff like furniture, tv, dryer everything is from 80th.      This place is not for long term vacations.  It is not worth 110 dollars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r369989987-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>369989987</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Kinda dumpy</t>
+  </si>
+  <si>
+    <t>The place was kinda dumpy, the staff was entirely indifferent, the room had a night table lamp with no light bulb in it, the plumbing leaked all over the carpet in the room (drip... drip...), the furniture was beat up and somewhat unsuited the the room.The only positives were, it was cheap and the wifi worked well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The place was kinda dumpy, the staff was entirely indifferent, the room had a night table lamp with no light bulb in it, the plumbing leaked all over the carpet in the room (drip... drip...), the furniture was beat up and somewhat unsuited the the room.The only positives were, it was cheap and the wifi worked well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r368483135-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>368483135</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Sue P, Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded April 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r277124927-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>277124927</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>It was okay.</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for 6 days. The place was okay for a South Gate motel (I grew up here). We paid 79.99/night, and that seems a little much. Decent lobby, although the rooms need to be remodeled. It felt like we were staying in a place from the 60s.
+There were a few ants in the shower in the morning, but nothing crazy. We never made it to the donuts and coffee, so I can't comment on that. It wasn't loud or noisy, despite being behind an Arco, the carwash, and a busy street. WiFi was free.
+Everything about our stay was okay, until the manager decided to go crazy on me. I was walking back to the room from Target (right across the street), and she started yelling at me about "what I was doing in 201." I told her that I didn't know what she was talking about, as we were in room 210, but she kept yelling at me. I asked her to stop yelling, and she asked for my name. She finally apologized and explained that someone had broken into a room and wasn't coming out.
+If someone breaks in, you call the police, not yell at anyone walking past, but that's just me.
+Also, they billed us for our stay the day we checked in. It wasn't a big deal, but what if we had to cut our visit short? I hope...My boyfriend and I stayed here for 6 days. The place was okay for a South Gate motel (I grew up here). We paid 79.99/night, and that seems a little much. Decent lobby, although the rooms need to be remodeled. It felt like we were staying in a place from the 60s.There were a few ants in the shower in the morning, but nothing crazy. We never made it to the donuts and coffee, so I can't comment on that. It wasn't loud or noisy, despite being behind an Arco, the carwash, and a busy street. WiFi was free.Everything about our stay was okay, until the manager decided to go crazy on me. I was walking back to the room from Target (right across the street), and she started yelling at me about "what I was doing in 201." I told her that I didn't know what she was talking about, as we were in room 210, but she kept yelling at me. I asked her to stop yelling, and she asked for my name. She finally apologized and explained that someone had broken into a room and wasn't coming out.If someone breaks in, you call the police, not yell at anyone walking past, but that's just me.Also, they billed us for our stay the day we checked in. It wasn't a big deal, but what if we had to cut our visit short? I hope they would've refunded our money.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for 6 days. The place was okay for a South Gate motel (I grew up here). We paid 79.99/night, and that seems a little much. Decent lobby, although the rooms need to be remodeled. It felt like we were staying in a place from the 60s.
+There were a few ants in the shower in the morning, but nothing crazy. We never made it to the donuts and coffee, so I can't comment on that. It wasn't loud or noisy, despite being behind an Arco, the carwash, and a busy street. WiFi was free.
+Everything about our stay was okay, until the manager decided to go crazy on me. I was walking back to the room from Target (right across the street), and she started yelling at me about "what I was doing in 201." I told her that I didn't know what she was talking about, as we were in room 210, but she kept yelling at me. I asked her to stop yelling, and she asked for my name. She finally apologized and explained that someone had broken into a room and wasn't coming out.
+If someone breaks in, you call the police, not yell at anyone walking past, but that's just me.
+Also, they billed us for our stay the day we checked in. It wasn't a big deal, but what if we had to cut our visit short? I hope...My boyfriend and I stayed here for 6 days. The place was okay for a South Gate motel (I grew up here). We paid 79.99/night, and that seems a little much. Decent lobby, although the rooms need to be remodeled. It felt like we were staying in a place from the 60s.There were a few ants in the shower in the morning, but nothing crazy. We never made it to the donuts and coffee, so I can't comment on that. It wasn't loud or noisy, despite being behind an Arco, the carwash, and a busy street. WiFi was free.Everything about our stay was okay, until the manager decided to go crazy on me. I was walking back to the room from Target (right across the street), and she started yelling at me about "what I was doing in 201." I told her that I didn't know what she was talking about, as we were in room 210, but she kept yelling at me. I asked her to stop yelling, and she asked for my name. She finally apologized and explained that someone had broken into a room and wasn't coming out.If someone breaks in, you call the police, not yell at anyone walking past, but that's just me.Also, they billed us for our stay the day we checked in. It wasn't a big deal, but what if we had to cut our visit short? I hope they would've refunded our money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r235279050-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>235279050</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>WARNING!!! DON'T STAY HERE!!!!!</t>
+  </si>
+  <si>
+    <t>This was a horrible experience! ! When we checked in there was a woman behind a small glass window? ?? Made me think the area is not safe!?!? Checked in, received the key and went to the room.  No refrigerator as I had requested because we have our 5 yr. Old and our 5 month old.  I go by the sink and there I find little ants crawling every where!!! DISGUSTING!!!!  I called the front desk and she stated she would offer another room on 2nd floor. I Get THE Key AND Check Out THE 2nd room.  I walked in and right away noticed the nasty cigarette smoke
+???? Okay this doesn't make sense - No Smoking  sign on door but yet there was an ashtray on the table???  As I proceeded to walk out and down the hallway the smell of urine was atrocious along with the stairs!! DISGUSTING! ! I told the clerk at the window and she stated that she can give us our refund. I told her I would first check another hotel.... found nothing.  She then suggested to spray with ant spray to get rid of them. I reminded her that I had my baby and told her that she can't spray that around my baby!!! How stupid and ignorant in her part! ! I took my full refund and ran!!!! Never going to see me and my family returning to this dump!!!!  DON'T Waste...This was a horrible experience! ! When we checked in there was a woman behind a small glass window? ?? Made me think the area is not safe!?!? Checked in, received the key and went to the room.  No refrigerator as I had requested because we have our 5 yr. Old and our 5 month old.  I go by the sink and there I find little ants crawling every where!!! DISGUSTING!!!!  I called the front desk and she stated she would offer another room on 2nd floor. I Get THE Key AND Check Out THE 2nd room.  I walked in and right away noticed the nasty cigarette smoke???? Okay this doesn't make sense - No Smoking  sign on door but yet there was an ashtray on the table???  As I proceeded to walk out and down the hallway the smell of urine was atrocious along with the stairs!! DISGUSTING! ! I told the clerk at the window and she stated that she can give us our refund. I told her I would first check another hotel.... found nothing.  She then suggested to spray with ant spray to get rid of them. I reminded her that I had my baby and told her that she can't spray that around my baby!!! How stupid and ignorant in her part! ! I took my full refund and ran!!!! Never going to see me and my family returning to this dump!!!!  DON'T Waste YOUR money This Place is a dump!!!! :0MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a horrible experience! ! When we checked in there was a woman behind a small glass window? ?? Made me think the area is not safe!?!? Checked in, received the key and went to the room.  No refrigerator as I had requested because we have our 5 yr. Old and our 5 month old.  I go by the sink and there I find little ants crawling every where!!! DISGUSTING!!!!  I called the front desk and she stated she would offer another room on 2nd floor. I Get THE Key AND Check Out THE 2nd room.  I walked in and right away noticed the nasty cigarette smoke
+???? Okay this doesn't make sense - No Smoking  sign on door but yet there was an ashtray on the table???  As I proceeded to walk out and down the hallway the smell of urine was atrocious along with the stairs!! DISGUSTING! ! I told the clerk at the window and she stated that she can give us our refund. I told her I would first check another hotel.... found nothing.  She then suggested to spray with ant spray to get rid of them. I reminded her that I had my baby and told her that she can't spray that around my baby!!! How stupid and ignorant in her part! ! I took my full refund and ran!!!! Never going to see me and my family returning to this dump!!!!  DON'T Waste...This was a horrible experience! ! When we checked in there was a woman behind a small glass window? ?? Made me think the area is not safe!?!? Checked in, received the key and went to the room.  No refrigerator as I had requested because we have our 5 yr. Old and our 5 month old.  I go by the sink and there I find little ants crawling every where!!! DISGUSTING!!!!  I called the front desk and she stated she would offer another room on 2nd floor. I Get THE Key AND Check Out THE 2nd room.  I walked in and right away noticed the nasty cigarette smoke???? Okay this doesn't make sense - No Smoking  sign on door but yet there was an ashtray on the table???  As I proceeded to walk out and down the hallway the smell of urine was atrocious along with the stairs!! DISGUSTING! ! I told the clerk at the window and she stated that she can give us our refund. I told her I would first check another hotel.... found nothing.  She then suggested to spray with ant spray to get rid of them. I reminded her that I had my baby and told her that she can't spray that around my baby!!! How stupid and ignorant in her part! ! I took my full refund and ran!!!! Never going to see me and my family returning to this dump!!!!  DON'T Waste YOUR money This Place is a dump!!!! :0More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r187552651-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>187552651</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Customer Service? What customer service?</t>
+  </si>
+  <si>
+    <t>I booked myself a last minute stay here. Then I get told hey, pick a different city so I cancel and go change to a different hotel near Knotts Berry Farm. More touristy. Fun your thing happened. I canceled my booking less than two hours after I made it. They already charged my account. It was only pending and I was assured it'd be reversed. This morning it'd processed through and debited my account. Now I'm told my authorizion hasn't been released yet. Yeah. Now I'm told it's a ten day wait to get credited for a hotel room I never used. Also may have to cancel my trip as I didn't have money for double charging the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked myself a last minute stay here. Then I get told hey, pick a different city so I cancel and go change to a different hotel near Knotts Berry Farm. More touristy. Fun your thing happened. I canceled my booking less than two hours after I made it. They already charged my account. It was only pending and I was assured it'd be reversed. This morning it'd processed through and debited my account. Now I'm told my authorizion hasn't been released yet. Yeah. Now I'm told it's a ten day wait to get credited for a hotel room I never used. Also may have to cancel my trip as I didn't have money for double charging the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r62043427-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>62043427</t>
+  </si>
+  <si>
+    <t>04/20/2010</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here</t>
+  </si>
+  <si>
+    <t>I Stayed here last night because of its location. The room was dirty. Grease or oil on the furniture. Hair in the bathroom and cigarette holes in the blanket. The TV had only 12 channels of which only 7 were english language. Loud noises coming from drunk people outside my door until midnight. This was my worst motel experience in several years.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1730,3162 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>217</v>
+      </c>
+      <c r="X22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>145</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>226</v>
+      </c>
+      <c r="X25" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X26" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>256</v>
+      </c>
+      <c r="X27" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>264</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>256</v>
+      </c>
+      <c r="X28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" t="s">
+        <v>270</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O29" t="s">
+        <v>145</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>272</v>
+      </c>
+      <c r="X29" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>280</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>272</v>
+      </c>
+      <c r="X30" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>280</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>272</v>
+      </c>
+      <c r="X31" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
+        <v>300</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>303</v>
+      </c>
+      <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>271</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>306</v>
+      </c>
+      <c r="X34" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>314</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>315</v>
+      </c>
+      <c r="X35" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>323</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>324</v>
+      </c>
+      <c r="X36" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>323</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>315</v>
+      </c>
+      <c r="X37" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>333</v>
+      </c>
+      <c r="J38" t="s">
+        <v>334</v>
+      </c>
+      <c r="K38" t="s">
+        <v>335</v>
+      </c>
+      <c r="L38" t="s">
+        <v>336</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>337</v>
+      </c>
+      <c r="X38" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J39" t="s">
+        <v>342</v>
+      </c>
+      <c r="K39" t="s">
+        <v>343</v>
+      </c>
+      <c r="L39" t="s">
+        <v>344</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>323</v>
+      </c>
+      <c r="O39" t="s">
+        <v>300</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>337</v>
+      </c>
+      <c r="X39" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J40" t="s">
+        <v>348</v>
+      </c>
+      <c r="K40" t="s">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>350</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>351</v>
+      </c>
+      <c r="O40" t="s">
+        <v>145</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>352</v>
+      </c>
+      <c r="X40" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" t="s">
+        <v>357</v>
+      </c>
+      <c r="K41" t="s">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s">
+        <v>359</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>351</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>337</v>
+      </c>
+      <c r="X41" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>361</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>362</v>
+      </c>
+      <c r="J42" t="s">
+        <v>363</v>
+      </c>
+      <c r="K42" t="s">
+        <v>364</v>
+      </c>
+      <c r="L42" t="s">
+        <v>365</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" t="s">
+        <v>145</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>337</v>
+      </c>
+      <c r="X42" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>369</v>
+      </c>
+      <c r="J43" t="s">
+        <v>370</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>330</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>366</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>371</v>
+      </c>
+      <c r="X43" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+      <c r="J44" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" t="s">
+        <v>376</v>
+      </c>
+      <c r="L44" t="s">
+        <v>377</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>378</v>
+      </c>
+      <c r="O44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45" t="s">
+        <v>382</v>
+      </c>
+      <c r="K45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s">
+        <v>384</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>387</v>
+      </c>
+      <c r="J46" t="s">
+        <v>388</v>
+      </c>
+      <c r="K46" t="s">
+        <v>389</v>
+      </c>
+      <c r="L46" t="s">
+        <v>390</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" t="s">
+        <v>394</v>
+      </c>
+      <c r="K47" t="s">
+        <v>395</v>
+      </c>
+      <c r="L47" t="s">
+        <v>396</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>397</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_180.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_180.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>djfk11</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Pretty straight forward great staff rooms were clean and well equipped, very satisfied with my stayMore</t>
   </si>
   <si>
+    <t>cesramek123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r568357162-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>The one and only night I stayed here the police did a prostitution sting in the middle of the night. I could see and hear what was going on through the cracks around my door. There was no weather strip. Between that and cars constantly revving their engines and tractor trailers driving by, I couldn’t sleep. I changed hotels in the morning. Rooms are not nice. Outside looks nice though.More</t>
   </si>
   <si>
+    <t>hveronica123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r562540832-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Bed sheets were dirty, our jacuzzi was extremely dirty I had to clean it. Our phone room did not work at all. When my fiancée went to speak to the front staff she said, they couldn’t do anything about it and was beyond rude. I always had chosen days inn as a place to stay but after this experience. Not sure anymore. More</t>
   </si>
   <si>
+    <t>christophercJ7892QF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r543635187-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>Days Inn South Gate is excellent for several reasons: the location, comfort of rooms, friendliness and professionalism of staff and price.  I've stayed here on 2 business trips and highly recommend this motel.More</t>
   </si>
   <si>
+    <t>ONALEGALNOTE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r540967970-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>When we arrived we found ants in the bathroom, all over the wall and Curtain, no more rooms so we couldn’t switch rooms, she offered a refund, but there was no where else we could go as we had a three day reservation for a family funeral. I don’t let my kids walk barefooted in hotels, even with socks on, my sons grey socks ended up BLACK. Please clean the carpet!! More</t>
   </si>
   <si>
+    <t>L4864BMrebeccam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r538185050-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Suite was extremely comfortable, spacious, and clean. Friendly and courteous staff. Plan to use it again. More</t>
   </si>
   <si>
+    <t>Q9693SYbrendar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r528075682-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>My husband and I had a great stay always very clean everyone very pleasant sleep was great. Been staying there several times now and will continueMore</t>
   </si>
   <si>
+    <t>Z662EYantoniov</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r527596970-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>The room we stayed at had bed bugs and ticks on the bed. When we asked the front desk if we could switch rooms or get new sheets anything at all to help us she was not able to help us we had to leave and find another place to stay since the bed had bed bugs and ticks. I would attach the video I recorded if I was able to. I really wanted to like the place but there were ticks and bed bugs.More</t>
   </si>
   <si>
+    <t>Q3229RMmichaelv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r526602843-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -387,6 +414,9 @@
     <t>It's one of the cheaper motels in the LA area and overall it's a good place. Housekeeping and other staff are attentive. No self-use laundry on site and the continental breakfast could use a few more choices, but overall a good experience.More</t>
   </si>
   <si>
+    <t>simplyalee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r522410724-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>this would be my second time staying here and i love it, the staff is amazing! i love how theyve been upgrading the rooms, really nice &amp; clean. definitely my go to place!  the kids loved going to the pool! so much fun!More</t>
   </si>
   <si>
+    <t>luissY9230AK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r519175292-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -438,6 +471,9 @@
     <t>Good place to stay expecting a clean room, quiet sleep, ample parking, and closeness to freeway.More</t>
   </si>
   <si>
+    <t>Jerry L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r517422906-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -465,6 +501,9 @@
     <t>I ordered room thought it was prepaid but site did not charge my credit card. called them about 530 about half hour before i was going to lose room for my card not being charged. but that was taken care of. checked in about 1000pm. room was clean no real issues. noise from next room in middle of night. pool was little dirty and very cold. sauna was cold. parking lot was clean. did not take advantage of the breakfast. i left my drivers license and did not find out til next day when my card key did not work and lady said she tried to call me. thought with my drivers license they should have went further for i was in los angeles without my license. but i would stay there. good rateMore</t>
   </si>
   <si>
+    <t>864marycw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r506884159-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -492,6 +531,9 @@
     <t>By far the WORST Days Inn ever. Staff barely spoke English. The bathroom had mildew stains all over it. Tub was filthy, no actual cover on bed, long strands of hair on bathroom door and sink. No wash cloths, asked for cover and cloths, not understood. Worst part it had a terrible smoke/marijuana smell. Yes it was non-smoking.More</t>
   </si>
   <si>
+    <t>solorioangie67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r506569311-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -516,6 +558,9 @@
     <t>Horrible experience , was severely bitten by mites over my stay, contacted manager and only offered a 10% discount , agreed to cover doctor visit and medication when i got back home but no full refund on stay. Will not be staying here again. I work in sales and had to stay home for a week until infection cleared up due to bites. Horrible experience if hotel wants my business again , they will have to make it right and refund my full stay. contact me  solorioangie67@gmail.comMore</t>
   </si>
   <si>
+    <t>MsFre F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r505609716-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -540,6 +585,9 @@
     <t>I have no complaints. Got to the room late night, but my room was ready for me. I didn't try the breakfast. Overall, my room was spacious and I felt safe in the neighborhood, even coming and going late nights. There are plenty of eateries, gas stations, and a Target/CVS in walking distance. More</t>
   </si>
   <si>
+    <t>cynthiabH9812RZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r501656203-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -567,6 +615,9 @@
     <t>Used the room for 2 days. Everything was fine except the sink was clogged the WHOLE time. I had to use the shower for everything. You get what you pay for I guess And the front desk people are rude. and the breakfast is WEAK. internet connection was poor as wellMore</t>
   </si>
   <si>
+    <t>Dana P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r499003792-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -591,6 +642,9 @@
     <t>ice machine and whirlpool were both broken. Door on fridge would not stay shut. Told front desk. No one ever came to fix entire week we were there.  Beds were a little too firm for my taste.  Air conditioner in room next to us probably needs something done to it. Was draining a ton of water in a big puddle that only got cleaned up once entire time we were there. Wi fi was spotty at best. Their continental breakfast consists of cereal, oatmeal, yogurt, toast, apples, coffee and juice.  No other fruit, no pastries, no waffle makers, nothing else. A couple of better things were it was clean enough and close to a variety of places to eat and a few stores.More</t>
   </si>
   <si>
+    <t>charleshK8367WY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r496011307-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -615,6 +669,9 @@
     <t>Very convenient location and room was nice. Other guest were very loud on first nite. Kid was crying all nite. Adults were talking loud late night until 3am. Very noisey. Days Inn in Hawthorne had a very nice breakfast.They had fresh pastries and they invested in their breakfast. This one had toast and cereal. Very poor choice. Stayed there a week and the hot tub was broken the entire time.More</t>
   </si>
   <si>
+    <t>David D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r489706816-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -634,6 +691,9 @@
   </si>
   <si>
     <t>The room was clean and quiet. Staff was friendly and competent. Neighborhood was not scary, but that is all I can say about it. "Continental breakfast" was cold cereal, toast, coffee, and . . . nothing else. Free WiFi is offered, but I could not connect my phone to it (Android). An O.K. cheap L.A. hotel.More</t>
+  </si>
+  <si>
+    <t>Brian W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r487033490-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -664,6 +724,9 @@
 The one complaint previous reviewers have discussed that is somewhat accurate is that this property has a very limited number of TV channels available.  They only have local channels + CNN + ESPN...I stayed at this property from May 19 to May 21, 2017.  I found it to be an excellent value.  The hotel was clean and comfortable.  It is conveniently located just south of downtown LA.  Since that's where my business appointment was, this property was very convenient and reasonably priced.I did not experience any of the problems mentioned by some recent reviewers.  While the lobby was closed when I arrived at 8:00 P.M., I rang the night bell and the receptionist appeared promptly at the night window. I did not experience any rudeness or inappropriate behavior.As stated above, the room was clean.  There was no garbage in the room or any other dirt or dirty things.  There were no bed bugs or other creepy-crawly things.  It did not appear that cleaning staff had been in any way negligent.The area did not seem unsafe.  There is a great deal of retail in the immediate vicinity.  The area is well lit.  I did not see any shady characters hanging around the area or the property.The property is next door to an Arco oil terminal.  There also is a small oil refinery nearby.  However, I did not experience any problems with smoke, fumes or other issues.The one complaint previous reviewers have discussed that is somewhat accurate is that this property has a very limited number of TV channels available.  They only have local channels + CNN + ESPN + 3 Spanish channels.  This was fine for me for a short stay, but might not be enough for some travellers.  Reception on one channel (KCAL, channel 9) was a bit fuzzy, but tolerable.  Reception on all other channels was clear.More</t>
   </si>
   <si>
+    <t>Ernie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r484146684-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -688,6 +751,9 @@
     <t>We checked in Tues may 9th for 2 nights till Thurs 11th. we decided to add a night, so Wed night we talked to Alexis as we booked another night using trip advisor..  the next morning while I'm at work I get a voicemail saying that i was supposed to be checked out.. and I will be charged $95... When i booked the room for $80... so after work i go to talk to someone, and the lady at the desk named Maria was extremely rude... I tell her the whole story, about how i booked the room and such, she's laughing in my face.. I'm already annoyed, she's hitting her hand on the desk for every word she speaks... she asks me questions and when i try to answer she constantly interrupts me.. I ask for a mgr. She says there's not 1 there.. I ask for a phone number or a mgr name.. she refuses to give it to me... she's still laughing!! By now I'm irate... I start yelling that this is unacceptable.. she asks me if I'm autistic... I couldn't believe it.. now I'm cussing her out.. the hell with being nice! I call days inn/wyndham customer care #.. they can't do anything.. so now I paying $95 for a room I booked for $80.. then to top it off, they charged my card twice.. I call to let them know they charged me 2x, Maria... We checked in Tues may 9th for 2 nights till Thurs 11th. we decided to add a night, so Wed night we talked to Alexis as we booked another night using trip advisor..  the next morning while I'm at work I get a voicemail saying that i was supposed to be checked out.. and I will be charged $95... When i booked the room for $80... so after work i go to talk to someone, and the lady at the desk named Maria was extremely rude... I tell her the whole story, about how i booked the room and such, she's laughing in my face.. I'm already annoyed, she's hitting her hand on the desk for every word she speaks... she asks me questions and when i try to answer she constantly interrupts me.. I ask for a mgr. She says there's not 1 there.. I ask for a phone number or a mgr name.. she refuses to give it to me... she's still laughing!! By now I'm irate... I start yelling that this is unacceptable.. she asks me if I'm autistic... I couldn't believe it.. now I'm cussing her out.. the hell with being nice! I call days inn/wyndham customer care #.. they can't do anything.. so now I paying $95 for a room I booked for $80.. then to top it off, they charged my card twice.. I call to let them know they charged me 2x, Maria answered, and says "oh it's you"... whatever, I'm being nice... she tells me that debit cards always get charged twice... which she's lying, cause for my 1st 2 nights there, I didn't get charged twice by Alexis.... only by the lady shaped like a rhino asking customers if they're autistic named "Maria"... other than her, everything was pretty good... days inn in south gate, please replace Maria cause she's making your business look extremely bad! More</t>
   </si>
   <si>
+    <t>97dennyr56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r475982216-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -715,6 +781,9 @@
     <t>Days Inn &amp; Suites South Gate8821 Garfield Ave :Bed bugs infested place. The worst ever experience in my life. Awful old furniture that practically falls apart in pieces. Filthy carpeted floor, restrooms in non smoking room smells like a bottom rock disgusting ash tray. Had to run the fan for several hours and still worst smelling premise. Everything would have been bearable if only not the constant police activity inside the hotel. It looks like danger gang activity hotel. Although we paid well over $200 dollars for only 3 nights we were fooled by misleading star rating reviews. Woke up 3 am with itching arm, then shoulder and finally my right ear. The most outrageous nasty stay in whole world of hotel businesses. My second arm was bitten by bed bugs while we were trying to gather things and check out. Bugs were attacking us all the night long. Front desk could not switch the room or at least get another clean place. Instead the lady said if you found one there should not be many, those are groups. Also she added that If I found one bug then that's probably the only one that was there. So, no big deal? Or no big surprise for front desk about infected rooms?Less then 1 star hotel.More</t>
   </si>
   <si>
+    <t>868jagp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r473190681-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -733,6 +802,9 @@
     <t>Room was a bit smelly and the TV not at all good. I could barely see things clearly. Advertised for great smart TV, but was not. NEEDS TO IMPROVE TV.More</t>
   </si>
   <si>
+    <t>katherineg328</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r472976232-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -754,6 +826,9 @@
     <t>My fiancé and I have decided this is our favorite get away spot when we need a low alone time.More</t>
   </si>
   <si>
+    <t>elizabethsC1995HZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r455070267-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -781,6 +856,9 @@
     <t>The room had ants, it smelled so bad the breakfast area in the lobby and dog poop from night before, they wouldn't give me an extra towel when I asked I was double charges.More</t>
   </si>
   <si>
+    <t>Wayne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r449964229-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -805,6 +883,9 @@
     <t>Great location for Rose Bowl, Lia Angeles, Disney, and other things, basic room, breakfast was huge disappointment!!More</t>
   </si>
   <si>
+    <t>476lynnk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r445740170-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -826,6 +907,9 @@
     <t>The room was not very clean, there was trash from prior guests. Not a place for diabetics breakfast was all carbs.More</t>
   </si>
   <si>
+    <t>RomanHouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r432803594-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -853,6 +937,9 @@
     <t>Second time visiting California and I stayed here again. Enjoyed the breakfast and room was great once again! Staff was also very accommodating! I definitely plan on staying here again for my next visit to California!More</t>
   </si>
   <si>
+    <t>ledwine2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r431261564-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -874,6 +961,9 @@
     <t>Service at night window was unfriendly. He forgot to do the basic step of programming card to room. Looked busy with his phone. Room was dirty and everything looks out-dated...More</t>
   </si>
   <si>
+    <t>748katherineg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r431250864-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -889,6 +979,9 @@
     <t>Very nice lil noisy kids running around yelling in the room above us and the bathroom was smelly other then that great and one more thing PLEASE GET BETTER CHANNELS.  THANK YOU. OTHER THAN AWESOME STAY NO REGRET'S. More</t>
   </si>
   <si>
+    <t>Charles G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r421640156-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -913,6 +1006,9 @@
     <t>Our stay at Days Inn in South Gate, CA was delightful!  The accommodations were just what was described and shown on their website.  We stayed in a disability accommodation room which had all of the safety precautions in place--it was a large spacious room that accommodated walker or wheelchair needs.  The staff were very friendly and helpful.  The Inn was central for our visiting needs and had all facets of entertainment and eateries within easy travel reach.More</t>
   </si>
   <si>
+    <t>280waleedz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r420371930-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -934,6 +1030,9 @@
     <t>Covered with filth; disgustingly dirty, no breakfast, empty coffee pots with some french toast.More</t>
   </si>
   <si>
+    <t>Eric H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r420208726-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -955,6 +1054,9 @@
     <t>Came to visit family. They recommended this hotel. I stayed for a week. Rooms were nice. nice breakfast. Great location.  Friendly Staff. I would definitely stay here again. I would recommned this hotel to my family and friends.More</t>
   </si>
   <si>
+    <t>384cinthyar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r404938526-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -982,6 +1084,9 @@
     <t>Called front desk to resolvean issue with tv and could fix it....Also arrived at 1 and room was not ready but they do expect us to returned at 11 am next day and if they haven't seen you they call to remind we have to leave...More</t>
   </si>
   <si>
+    <t>679jafar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r401366774-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1009,6 +1114,9 @@
     <t>i was not treat with respect,the pillow for sleeping was very very bad and i did not sleep good.More</t>
   </si>
   <si>
+    <t>marchG2625TD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r399609240-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1024,6 +1132,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>arpiebosnoyan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r392333214-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1048,6 +1159,9 @@
     <t>I had a very good experience at this hotel. I was only there for 2 nights and the room was very clean, bed was comfortable, and the staff was very friendly and helpful. They answered all my questions when needed. Parking was easy and the location was great. Many eating places in close distance. Overall, I would definitely recommend this hotel for your next stay.More</t>
   </si>
   <si>
+    <t>M1116XZchrisb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r391902596-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1093,6 +1207,9 @@
     <t>Hotel was excellent for the price! Location was perfect and the front desk accommodated any request I had. It was extremely clean. The hotel provided a free breakfast which had many different items to choose from. Generally parking isn't free in California so that was a plus!More</t>
   </si>
   <si>
+    <t>Eldiyar K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r371958812-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1111,6 +1228,9 @@
     <t>Came here with family, were planning to stay for 5 days. As soon as came into the room realized that we cannot stay here for that long. Room smells really bad.Also room has all old stuff like furniture, tv, dryer everything is from 80th.      This place is not for long term vacations.  It is not worth 110 dollars.More</t>
   </si>
   <si>
+    <t>950clauss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r369989987-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1132,6 +1252,9 @@
     <t>The place was kinda dumpy, the staff was entirely indifferent, the room had a night table lamp with no light bulb in it, the plumbing leaked all over the carpet in the room (drip... drip...), the furniture was beat up and somewhat unsuited the the room.The only positives were, it was cheap and the wifi worked well.More</t>
   </si>
   <si>
+    <t>smagana85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r368483135-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1145,6 +1268,9 @@
   </si>
   <si>
     <t>Responded April 30, 2016</t>
+  </si>
+  <si>
+    <t>Vanessa C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r277124927-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -1176,6 +1302,9 @@
 Also, they billed us for our stay the day we checked in. It wasn't a big deal, but what if we had to cut our visit short? I hope...My boyfriend and I stayed here for 6 days. The place was okay for a South Gate motel (I grew up here). We paid 79.99/night, and that seems a little much. Decent lobby, although the rooms need to be remodeled. It felt like we were staying in a place from the 60s.There were a few ants in the shower in the morning, but nothing crazy. We never made it to the donuts and coffee, so I can't comment on that. It wasn't loud or noisy, despite being behind an Arco, the carwash, and a busy street. WiFi was free.Everything about our stay was okay, until the manager decided to go crazy on me. I was walking back to the room from Target (right across the street), and she started yelling at me about "what I was doing in 201." I told her that I didn't know what she was talking about, as we were in room 210, but she kept yelling at me. I asked her to stop yelling, and she asked for my name. She finally apologized and explained that someone had broken into a room and wasn't coming out.If someone breaks in, you call the police, not yell at anyone walking past, but that's just me.Also, they billed us for our stay the day we checked in. It wasn't a big deal, but what if we had to cut our visit short? I hope they would've refunded our money.More</t>
   </si>
   <si>
+    <t>hoynomas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r235279050-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1196,6 +1325,9 @@
 ???? Okay this doesn't make sense - No Smoking  sign on door but yet there was an ashtray on the table???  As I proceeded to walk out and down the hallway the smell of urine was atrocious along with the stairs!! DISGUSTING! ! I told the clerk at the window and she stated that she can give us our refund. I told her I would first check another hotel.... found nothing.  She then suggested to spray with ant spray to get rid of them. I reminded her that I had my baby and told her that she can't spray that around my baby!!! How stupid and ignorant in her part! ! I took my full refund and ran!!!! Never going to see me and my family returning to this dump!!!!  DON'T Waste...This was a horrible experience! ! When we checked in there was a woman behind a small glass window? ?? Made me think the area is not safe!?!? Checked in, received the key and went to the room.  No refrigerator as I had requested because we have our 5 yr. Old and our 5 month old.  I go by the sink and there I find little ants crawling every where!!! DISGUSTING!!!!  I called the front desk and she stated she would offer another room on 2nd floor. I Get THE Key AND Check Out THE 2nd room.  I walked in and right away noticed the nasty cigarette smoke???? Okay this doesn't make sense - No Smoking  sign on door but yet there was an ashtray on the table???  As I proceeded to walk out and down the hallway the smell of urine was atrocious along with the stairs!! DISGUSTING! ! I told the clerk at the window and she stated that she can give us our refund. I told her I would first check another hotel.... found nothing.  She then suggested to spray with ant spray to get rid of them. I reminded her that I had my baby and told her that she can't spray that around my baby!!! How stupid and ignorant in her part! ! I took my full refund and ran!!!! Never going to see me and my family returning to this dump!!!!  DON'T Waste YOUR money This Place is a dump!!!! :0More</t>
   </si>
   <si>
+    <t>1anony-moose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r187552651-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1212,6 +1344,9 @@
   </si>
   <si>
     <t>I booked myself a last minute stay here. Then I get told hey, pick a different city so I cancel and go change to a different hotel near Knotts Berry Farm. More touristy. Fun your thing happened. I canceled my booking less than two hours after I made it. They already charged my account. It was only pending and I was assured it'd be reversed. This morning it'd processed through and debited my account. Now I'm told my authorizion hasn't been released yet. Yeah. Now I'm told it's a ten day wait to get credited for a hotel room I never used. Also may have to cancel my trip as I didn't have money for double charging the hotel.More</t>
+  </si>
+  <si>
+    <t>canadablizzard</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r62043427-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -1734,43 +1869,47 @@
       <c r="A2" t="n">
         <v>37050</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>134337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1792,56 +1931,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37050</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>134338</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1863,56 +2006,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37050</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>134339</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1934,56 +2081,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37050</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>134340</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2005,56 +2156,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37050</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>134341</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2076,56 +2231,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37050</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>134342</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2147,56 +2306,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37050</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>134343</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2218,56 +2381,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37050</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>134344</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>112</v>
       </c>
-      <c r="L9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
-      </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2289,56 +2456,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37050</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>134345</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2360,56 +2531,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37050</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>134346</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2427,56 +2602,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37050</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>134347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2498,56 +2677,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37050</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>55898</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2569,56 +2752,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37050</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>134348</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2640,56 +2827,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37050</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>134349</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2707,56 +2898,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37050</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>134350</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2778,56 +2973,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37050</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>134351</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2849,56 +3048,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37050</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>44853</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2916,56 +3119,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37050</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>134352</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2987,56 +3194,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37050</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>7545</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3058,56 +3269,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37050</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>7473</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3123,56 +3338,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37050</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>134353</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3184,56 +3403,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37050</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>134354</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3255,56 +3478,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37050</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>134355</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3326,56 +3553,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37050</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>134356</v>
+      </c>
+      <c r="C25" t="s">
+        <v>258</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3397,56 +3628,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X25" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37050</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>134357</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3468,56 +3703,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="X26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37050</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>27535</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3539,56 +3778,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="X27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37050</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>134358</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3610,56 +3853,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="X28" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37050</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>134359</v>
+      </c>
+      <c r="C29" t="s">
+        <v>293</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="O29" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3675,56 +3922,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37050</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>134360</v>
+      </c>
+      <c r="C30" t="s">
+        <v>303</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3746,56 +3997,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X30" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37050</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>134361</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="J31" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3817,56 +4072,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X31" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37050</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>9859</v>
+      </c>
+      <c r="C32" t="s">
+        <v>317</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3888,56 +4147,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="X32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37050</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>134362</v>
+      </c>
+      <c r="C33" t="s">
+        <v>326</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="L33" t="s">
+        <v>331</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>299</v>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>271</v>
-      </c>
       <c r="O33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3949,56 +4212,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="X33" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="Y33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37050</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C34" t="s">
+        <v>334</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4016,56 +4283,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="X34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="Y34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37050</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>134363</v>
+      </c>
+      <c r="C35" t="s">
+        <v>342</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4087,56 +4358,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="X35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="Y35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37050</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>134364</v>
+      </c>
+      <c r="C36" t="s">
+        <v>352</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="J36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="K36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="L36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4158,54 +4433,58 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="X36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="Y36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37050</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>134365</v>
+      </c>
+      <c r="C37" t="s">
+        <v>362</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="J37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4227,56 +4506,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="X37" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="Y37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37050</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>134366</v>
+      </c>
+      <c r="C38" t="s">
+        <v>368</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="J38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="K38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="L38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4294,56 +4577,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="X38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Y38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37050</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>134367</v>
+      </c>
+      <c r="C39" t="s">
+        <v>377</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="J39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="K39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="L39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="O39" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4365,56 +4652,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="X39" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Y39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37050</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>134358</v>
+      </c>
+      <c r="C40" t="s">
+        <v>293</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="J40" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="K40" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L40" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="O40" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4432,56 +4723,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="X40" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="Y40" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37050</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>134368</v>
+      </c>
+      <c r="C41" t="s">
+        <v>393</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="J41" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="K41" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4493,56 +4788,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="X41" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Y41" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37050</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>134369</v>
+      </c>
+      <c r="C42" t="s">
+        <v>400</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="K42" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="L42" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="O42" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4564,54 +4863,58 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="X42" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Y42" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37050</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>134370</v>
+      </c>
+      <c r="C43" t="s">
+        <v>408</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="J43" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4633,56 +4936,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="X43" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="Y43" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37050</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>18857</v>
+      </c>
+      <c r="C44" t="s">
+        <v>414</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="J44" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K44" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="L44" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="O44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -4702,41 +5009,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37050</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>134371</v>
+      </c>
+      <c r="C45" t="s">
+        <v>422</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="J45" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="K45" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="L45" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
@@ -4763,41 +5074,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37050</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>134372</v>
+      </c>
+      <c r="C46" t="s">
+        <v>429</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="J46" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="K46" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="L46" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
@@ -4816,50 +5131,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37050</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>134373</v>
+      </c>
+      <c r="C47" t="s">
+        <v>436</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="J47" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="K47" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="L47" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4883,7 +5202,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_180.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_180.xlsx
@@ -1870,7 +1870,7 @@
         <v>37050</v>
       </c>
       <c r="B2" t="n">
-        <v>134337</v>
+        <v>165218</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1945,7 +1945,7 @@
         <v>37050</v>
       </c>
       <c r="B3" t="n">
-        <v>134338</v>
+        <v>165219</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2020,7 +2020,7 @@
         <v>37050</v>
       </c>
       <c r="B4" t="n">
-        <v>134339</v>
+        <v>165220</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -2095,7 +2095,7 @@
         <v>37050</v>
       </c>
       <c r="B5" t="n">
-        <v>134340</v>
+        <v>165221</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -2170,7 +2170,7 @@
         <v>37050</v>
       </c>
       <c r="B6" t="n">
-        <v>134341</v>
+        <v>165222</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -2245,7 +2245,7 @@
         <v>37050</v>
       </c>
       <c r="B7" t="n">
-        <v>134342</v>
+        <v>165223</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
@@ -2320,7 +2320,7 @@
         <v>37050</v>
       </c>
       <c r="B8" t="n">
-        <v>134343</v>
+        <v>165224</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -2395,7 +2395,7 @@
         <v>37050</v>
       </c>
       <c r="B9" t="n">
-        <v>134344</v>
+        <v>165225</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
@@ -2470,7 +2470,7 @@
         <v>37050</v>
       </c>
       <c r="B10" t="n">
-        <v>134345</v>
+        <v>165226</v>
       </c>
       <c r="C10" t="s">
         <v>125</v>
@@ -2545,7 +2545,7 @@
         <v>37050</v>
       </c>
       <c r="B11" t="n">
-        <v>134346</v>
+        <v>165227</v>
       </c>
       <c r="C11" t="s">
         <v>132</v>
@@ -2616,7 +2616,7 @@
         <v>37050</v>
       </c>
       <c r="B12" t="n">
-        <v>134347</v>
+        <v>165228</v>
       </c>
       <c r="C12" t="s">
         <v>142</v>
@@ -2766,7 +2766,7 @@
         <v>37050</v>
       </c>
       <c r="B14" t="n">
-        <v>134348</v>
+        <v>165229</v>
       </c>
       <c r="C14" t="s">
         <v>161</v>
@@ -2841,7 +2841,7 @@
         <v>37050</v>
       </c>
       <c r="B15" t="n">
-        <v>134349</v>
+        <v>165230</v>
       </c>
       <c r="C15" t="s">
         <v>171</v>
@@ -2912,7 +2912,7 @@
         <v>37050</v>
       </c>
       <c r="B16" t="n">
-        <v>134350</v>
+        <v>165231</v>
       </c>
       <c r="C16" t="s">
         <v>180</v>
@@ -2987,7 +2987,7 @@
         <v>37050</v>
       </c>
       <c r="B17" t="n">
-        <v>134351</v>
+        <v>165232</v>
       </c>
       <c r="C17" t="s">
         <v>189</v>
@@ -3133,7 +3133,7 @@
         <v>37050</v>
       </c>
       <c r="B19" t="n">
-        <v>134352</v>
+        <v>165233</v>
       </c>
       <c r="C19" t="s">
         <v>208</v>
@@ -3352,7 +3352,7 @@
         <v>37050</v>
       </c>
       <c r="B22" t="n">
-        <v>134353</v>
+        <v>165234</v>
       </c>
       <c r="C22" t="s">
         <v>232</v>
@@ -3417,7 +3417,7 @@
         <v>37050</v>
       </c>
       <c r="B23" t="n">
-        <v>134354</v>
+        <v>165235</v>
       </c>
       <c r="C23" t="s">
         <v>241</v>
@@ -3492,7 +3492,7 @@
         <v>37050</v>
       </c>
       <c r="B24" t="n">
-        <v>134355</v>
+        <v>165236</v>
       </c>
       <c r="C24" t="s">
         <v>251</v>
@@ -3567,7 +3567,7 @@
         <v>37050</v>
       </c>
       <c r="B25" t="n">
-        <v>134356</v>
+        <v>165237</v>
       </c>
       <c r="C25" t="s">
         <v>258</v>
@@ -3642,7 +3642,7 @@
         <v>37050</v>
       </c>
       <c r="B26" t="n">
-        <v>134357</v>
+        <v>165238</v>
       </c>
       <c r="C26" t="s">
         <v>266</v>
@@ -3792,7 +3792,7 @@
         <v>37050</v>
       </c>
       <c r="B28" t="n">
-        <v>134358</v>
+        <v>165239</v>
       </c>
       <c r="C28" t="s">
         <v>285</v>
@@ -3867,7 +3867,7 @@
         <v>37050</v>
       </c>
       <c r="B29" t="n">
-        <v>134359</v>
+        <v>134343</v>
       </c>
       <c r="C29" t="s">
         <v>293</v>
@@ -3936,7 +3936,7 @@
         <v>37050</v>
       </c>
       <c r="B30" t="n">
-        <v>134360</v>
+        <v>165240</v>
       </c>
       <c r="C30" t="s">
         <v>303</v>
@@ -4011,7 +4011,7 @@
         <v>37050</v>
       </c>
       <c r="B31" t="n">
-        <v>134361</v>
+        <v>165241</v>
       </c>
       <c r="C31" t="s">
         <v>311</v>
@@ -4161,7 +4161,7 @@
         <v>37050</v>
       </c>
       <c r="B33" t="n">
-        <v>134362</v>
+        <v>165242</v>
       </c>
       <c r="C33" t="s">
         <v>326</v>
@@ -4297,7 +4297,7 @@
         <v>37050</v>
       </c>
       <c r="B35" t="n">
-        <v>134363</v>
+        <v>165243</v>
       </c>
       <c r="C35" t="s">
         <v>342</v>
@@ -4372,7 +4372,7 @@
         <v>37050</v>
       </c>
       <c r="B36" t="n">
-        <v>134364</v>
+        <v>165244</v>
       </c>
       <c r="C36" t="s">
         <v>352</v>
@@ -4447,7 +4447,7 @@
         <v>37050</v>
       </c>
       <c r="B37" t="n">
-        <v>134365</v>
+        <v>165245</v>
       </c>
       <c r="C37" t="s">
         <v>362</v>
@@ -4520,7 +4520,7 @@
         <v>37050</v>
       </c>
       <c r="B38" t="n">
-        <v>134366</v>
+        <v>165246</v>
       </c>
       <c r="C38" t="s">
         <v>368</v>
@@ -4591,7 +4591,7 @@
         <v>37050</v>
       </c>
       <c r="B39" t="n">
-        <v>134367</v>
+        <v>165247</v>
       </c>
       <c r="C39" t="s">
         <v>377</v>
@@ -4666,7 +4666,7 @@
         <v>37050</v>
       </c>
       <c r="B40" t="n">
-        <v>134358</v>
+        <v>134343</v>
       </c>
       <c r="C40" t="s">
         <v>293</v>
@@ -4737,7 +4737,7 @@
         <v>37050</v>
       </c>
       <c r="B41" t="n">
-        <v>134368</v>
+        <v>165248</v>
       </c>
       <c r="C41" t="s">
         <v>393</v>
@@ -4802,7 +4802,7 @@
         <v>37050</v>
       </c>
       <c r="B42" t="n">
-        <v>134369</v>
+        <v>165249</v>
       </c>
       <c r="C42" t="s">
         <v>400</v>
@@ -4877,7 +4877,7 @@
         <v>37050</v>
       </c>
       <c r="B43" t="n">
-        <v>134370</v>
+        <v>165250</v>
       </c>
       <c r="C43" t="s">
         <v>408</v>
@@ -5017,7 +5017,7 @@
         <v>37050</v>
       </c>
       <c r="B45" t="n">
-        <v>134371</v>
+        <v>165251</v>
       </c>
       <c r="C45" t="s">
         <v>422</v>
@@ -5082,7 +5082,7 @@
         <v>37050</v>
       </c>
       <c r="B46" t="n">
-        <v>134372</v>
+        <v>165252</v>
       </c>
       <c r="C46" t="s">
         <v>429</v>
@@ -5139,7 +5139,7 @@
         <v>37050</v>
       </c>
       <c r="B47" t="n">
-        <v>134373</v>
+        <v>165253</v>
       </c>
       <c r="C47" t="s">
         <v>436</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_180.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_180.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="554">
   <si>
     <t>STR#</t>
   </si>
@@ -150,51 +150,127 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>djfk11</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r602150856-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>33113</t>
+  </si>
+  <si>
+    <t>82198</t>
+  </si>
+  <si>
+    <t>602150856</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Want a Clean Room? Don't Stay Here.</t>
+  </si>
+  <si>
+    <t>Wifi was spotty, cloth chairs in the room were ripped, mini-fridge wasn't cold, there was a tiny little trash for the entire hotel room with no trash can in the restroom and someone's old crusty bar of soap was still sitting in the tub, but that's not the worst part.
+Stayed at this vicinity with my family for two nights and we were ecstatic to find a place that was relatively close to everything we were hoping to see/do. Entered the room and it looked pretty good, however we noticed there were crumbs EVERYWHERE. We respectfully asked if they would mind just vacuuming one more time and housekeeping did not seem pleased. 
+We left the next day bright and early and were out until 10pm and excited to come back to rest. WRONG. The room was NEVER CLEANED since we left in the morning. Beds were unmade, trash wasn't taken out, the half roll toilet paper that was given was all gone and the dirty towels were still placed on the floor of the room as instructed and we had no more clean towels. Went to talk to management and the front desk person was very respectful, but not helpful. She mentioned she only works during the day and doesn't deal with management or housekeeping. Then she mentioned that their policy was "usually housekeeping calls you in the morning to ask if you need your room cleaned. If you don't...Wifi was spotty, cloth chairs in the room were ripped, mini-fridge wasn't cold, there was a tiny little trash for the entire hotel room with no trash can in the restroom and someone's old crusty bar of soap was still sitting in the tub, but that's not the worst part.Stayed at this vicinity with my family for two nights and we were ecstatic to find a place that was relatively close to everything we were hoping to see/do. Entered the room and it looked pretty good, however we noticed there were crumbs EVERYWHERE. We respectfully asked if they would mind just vacuuming one more time and housekeeping did not seem pleased. We left the next day bright and early and were out until 10pm and excited to come back to rest. WRONG. The room was NEVER CLEANED since we left in the morning. Beds were unmade, trash wasn't taken out, the half roll toilet paper that was given was all gone and the dirty towels were still placed on the floor of the room as instructed and we had no more clean towels. Went to talk to management and the front desk person was very respectful, but not helpful. She mentioned she only works during the day and doesn't deal with management or housekeeping. Then she mentioned that their policy was "usually housekeeping calls you in the morning to ask if you need your room cleaned. If you don't answer the phone, they don't clean your room because they think you don't want to be disturbed". Never ever have I had this relayed to me from ANY hotel. I asked her how that worked and if I was supposed to wait in my hotel room until someone called which was ridiculous and if I didn't want to be disturbed, I'd place the door hanger that says "Do not disturb". Was approached by housekeeping in the morning prior to check out who claimed "I thought you were only here for one night". So if you'd like to know, this establishment waits until 2 hours prior to your stay to clean their rooms and allows it to be dirty all night long. Regardless, my family and I, including the friends we are going to tell, will never stay at this location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Wifi was spotty, cloth chairs in the room were ripped, mini-fridge wasn't cold, there was a tiny little trash for the entire hotel room with no trash can in the restroom and someone's old crusty bar of soap was still sitting in the tub, but that's not the worst part.
+Stayed at this vicinity with my family for two nights and we were ecstatic to find a place that was relatively close to everything we were hoping to see/do. Entered the room and it looked pretty good, however we noticed there were crumbs EVERYWHERE. We respectfully asked if they would mind just vacuuming one more time and housekeeping did not seem pleased. 
+We left the next day bright and early and were out until 10pm and excited to come back to rest. WRONG. The room was NEVER CLEANED since we left in the morning. Beds were unmade, trash wasn't taken out, the half roll toilet paper that was given was all gone and the dirty towels were still placed on the floor of the room as instructed and we had no more clean towels. Went to talk to management and the front desk person was very respectful, but not helpful. She mentioned she only works during the day and doesn't deal with management or housekeeping. Then she mentioned that their policy was "usually housekeeping calls you in the morning to ask if you need your room cleaned. If you don't...Wifi was spotty, cloth chairs in the room were ripped, mini-fridge wasn't cold, there was a tiny little trash for the entire hotel room with no trash can in the restroom and someone's old crusty bar of soap was still sitting in the tub, but that's not the worst part.Stayed at this vicinity with my family for two nights and we were ecstatic to find a place that was relatively close to everything we were hoping to see/do. Entered the room and it looked pretty good, however we noticed there were crumbs EVERYWHERE. We respectfully asked if they would mind just vacuuming one more time and housekeeping did not seem pleased. We left the next day bright and early and were out until 10pm and excited to come back to rest. WRONG. The room was NEVER CLEANED since we left in the morning. Beds were unmade, trash wasn't taken out, the half roll toilet paper that was given was all gone and the dirty towels were still placed on the floor of the room as instructed and we had no more clean towels. Went to talk to management and the front desk person was very respectful, but not helpful. She mentioned she only works during the day and doesn't deal with management or housekeeping. Then she mentioned that their policy was "usually housekeeping calls you in the morning to ask if you need your room cleaned. If you don't answer the phone, they don't clean your room because they think you don't want to be disturbed". Never ever have I had this relayed to me from ANY hotel. I asked her how that worked and if I was supposed to wait in my hotel room until someone called which was ridiculous and if I didn't want to be disturbed, I'd place the door hanger that says "Do not disturb". Was approached by housekeeping in the morning prior to check out who claimed "I thought you were only here for one night". So if you'd like to know, this establishment waits until 2 hours prior to your stay to clean their rooms and allows it to be dirty all night long. Regardless, my family and I, including the friends we are going to tell, will never stay at this location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r531220129-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>531220129</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>Another pleasant stay at this hotel. Looks like they recently did some room renovations which already made a nice hotel even better. Hotel staff was very attentive as usual. Look forward to staying here in the near future again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Another pleasant stay at this hotel. Looks like they recently did some room renovations which already made a nice hotel even better. Hotel staff was very attentive as usual. Look forward to staying here in the near future again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r588384932-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>588384932</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Meh.</t>
+  </si>
+  <si>
+    <t>Only consider this place if you cant find anywhere else to stay or plan on throwing a party. The type of "guests" it attracts are of the noisy variety so dont plan on getting a good night sleep. Everything is so dated; possibly everything is still the same from when it used to be named Guesthouse Inn. It is conveniently close to lots of places to eat, movie cinema, shops, and freeway. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded July 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2018</t>
+  </si>
+  <si>
+    <t>Only consider this place if you cant find anywhere else to stay or plan on throwing a party. The type of "guests" it attracts are of the noisy variety so dont plan on getting a good night sleep. Everything is so dated; possibly everything is still the same from when it used to be named Guesthouse Inn. It is conveniently close to lots of places to eat, movie cinema, shops, and freeway. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r572066488-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
-    <t>33113</t>
-  </si>
-  <si>
-    <t>82198</t>
-  </si>
-  <si>
     <t>572066488</t>
   </si>
   <si>
     <t>04/08/2018</t>
   </si>
   <si>
-    <t>Excellent!</t>
-  </si>
-  <si>
     <t>Pretty straight forward great staff rooms were clean and well equipped, very satisfied with my stayMoreShow less</t>
   </si>
   <si>
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
   </si>
   <si>
     <t>Pretty straight forward great staff rooms were clean and well equipped, very satisfied with my stayMore</t>
   </si>
   <si>
-    <t>cesramek123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r568357162-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -204,19 +280,13 @@
     <t>03/23/2018</t>
   </si>
   <si>
-    <t>Police sting...</t>
-  </si>
-  <si>
-    <t>The one and only night I stayed here the police did a prostitution sting in the middle of the night. I could see and hear what was going on through the cracks around my door. There was no weather strip. Between that and cars constantly revving their engines and tractor trailers driving by, I couldn’t sleep. I changed hotels in the morning. Rooms are not nice. Outside looks nice though.MoreShow less</t>
+    <t>MoreShow less</t>
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>The one and only night I stayed here the police did a prostitution sting in the middle of the night. I could see and hear what was going on through the cracks around my door. There was no weather strip. Between that and cars constantly revving their engines and tractor trailers driving by, I couldn’t sleep. I changed hotels in the morning. Rooms are not nice. Outside looks nice though.More</t>
-  </si>
-  <si>
-    <t>hveronica123</t>
+    <t>More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r562540832-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -228,12 +298,6 @@
     <t>02/24/2018</t>
   </si>
   <si>
-    <t>Very disappointed</t>
-  </si>
-  <si>
-    <t>Bed sheets were dirty, our jacuzzi was extremely dirty I had to clean it. Our phone room did not work at all. When my fiancée went to speak to the front staff she said, they couldn’t do anything about it and was beyond rude. I always had chosen days inn as a place to stay but after this experience. Not sure anymore. MoreShow less</t>
-  </si>
-  <si>
     <t>February 2018</t>
   </si>
   <si>
@@ -246,10 +310,55 @@
     <t>Responded March 9, 2018</t>
   </si>
   <si>
-    <t>Bed sheets were dirty, our jacuzzi was extremely dirty I had to clean it. Our phone room did not work at all. When my fiancée went to speak to the front staff she said, they couldn’t do anything about it and was beyond rude. I always had chosen days inn as a place to stay but after this experience. Not sure anymore. More</t>
-  </si>
-  <si>
-    <t>christophercJ7892QF</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r560184681-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>560184681</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Wyndham rewarding late check out is a myth</t>
+  </si>
+  <si>
+    <t>Wyndham rewards says I as a member at a certain level get, early check in, as well as late check out. I say here multiple times but when I try to check in before 2pm they say I have to wait, and as far as check out, check out is at 11am and the front desk calls me at 10am to remind me of the check out time at 11am every single time! When I ask them if I can have a late check out since it’s in my Wyndham rewards email confirmation the front desk always says no I have to check out at 11am if not I’m charged more MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Wyndham rewards says I as a member at a certain level get, early check in, as well as late check out. I say here multiple times but when I try to check in before 2pm they say I have to wait, and as far as check out, check out is at 11am and the front desk calls me at 10am to remind me of the check out time at 11am every single time! When I ask them if I can have a late check out since it’s in my Wyndham rewards email confirmation the front desk always says no I have to check out at 11am if not I’m charged more More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r552779901-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>552779901</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Very rude staff</t>
+  </si>
+  <si>
+    <t>Great motel. Very rude staff. I was on a business call, so I sat in the car until my call was over. Meanwhile, my teenage son had use the restroom. So he went in and asked to use the bathroom. The lady refused. After my call was over, I went in to check in. The Expedia website said double queen room. The lady gave us a single queen room. When i asked her about it she refused to even talk to me about it and just kept saying that i had to go onlone. She had no interest in helping me resolve my problem, even of i would have to pay more. The next morning my son went down to get some toast and the same lady wouldn't let him get anything because he didn't have the room ley, even though she knew who he was. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Great motel. Very rude staff. I was on a business call, so I sat in the car until my call was over. Meanwhile, my teenage son had use the restroom. So he went in and asked to use the bathroom. The lady refused. After my call was over, I went in to check in. The Expedia website said double queen room. The lady gave us a single queen room. When i asked her about it she refused to even talk to me about it and just kept saying that i had to go onlone. She had no interest in helping me resolve my problem, even of i would have to pay more. The next morning my son went down to get some toast and the same lady wouldn't let him get anything because he didn't have the room ley, even though she knew who he was. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r543635187-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -279,9 +388,6 @@
     <t>Days Inn South Gate is excellent for several reasons: the location, comfort of rooms, friendliness and professionalism of staff and price.  I've stayed here on 2 business trips and highly recommend this motel.More</t>
   </si>
   <si>
-    <t>ONALEGALNOTE</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r540967970-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -291,24 +397,12 @@
     <t>11/14/2017</t>
   </si>
   <si>
-    <t>Ok but could be better</t>
-  </si>
-  <si>
-    <t>When we arrived we found ants in the bathroom, all over the wall and Curtain, no more rooms so we couldn’t switch rooms, she offered a refund, but there was no where else we could go as we had a three day reservation for a family funeral. I don’t let my kids walk barefooted in hotels, even with socks on, my sons grey socks ended up BLACK. Please clean the carpet!! MoreShow less</t>
-  </si>
-  <si>
     <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded November 15, 2017</t>
   </si>
   <si>
     <t>Responded November 15, 2017</t>
   </si>
   <si>
-    <t>When we arrived we found ants in the bathroom, all over the wall and Curtain, no more rooms so we couldn’t switch rooms, she offered a refund, but there was no where else we could go as we had a three day reservation for a family funeral. I don’t let my kids walk barefooted in hotels, even with socks on, my sons grey socks ended up BLACK. Please clean the carpet!! More</t>
-  </si>
-  <si>
-    <t>L4864BMrebeccam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r538185050-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -318,12 +412,6 @@
     <t>11/03/2017</t>
   </si>
   <si>
-    <t>restful</t>
-  </si>
-  <si>
-    <t>Suite was extremely comfortable, spacious, and clean. Friendly and courteous staff. Plan to use it again. MoreShow less</t>
-  </si>
-  <si>
     <t>October 2017</t>
   </si>
   <si>
@@ -333,10 +421,46 @@
     <t>Responded November 7, 2017</t>
   </si>
   <si>
-    <t>Suite was extremely comfortable, spacious, and clean. Friendly and courteous staff. Plan to use it again. More</t>
-  </si>
-  <si>
-    <t>Q9693SYbrendar</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r537918154-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>537918154</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE EXPERIENCE... DON'T STAY HERE!!</t>
+  </si>
+  <si>
+    <t>They never cleaned the room in 2 days! stinky bath to urine and plague of black ants Non-Friendly staffMoreShow less</t>
+  </si>
+  <si>
+    <t>They never cleaned the room in 2 days! stinky bath to urine and plague of black ants Non-Friendly staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r532741072-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>532741072</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Room was hot ac was not working. Called the front desk an...</t>
+  </si>
+  <si>
+    <t>Room was hot ac was not working. Called the front desk an all i was advice to do was open my door or my windows if its really that hot . MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Room was hot ac was not working. Called the front desk an all i was advice to do was open my door or my windows if its really that hot . More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r528075682-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -354,9 +478,6 @@
     <t>My husband and I had a great stay always very clean everyone very pleasant sleep was great. Been staying there several times now and will continueMoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded September 29, 2017</t>
   </si>
   <si>
@@ -366,9 +487,6 @@
     <t>My husband and I had a great stay always very clean everyone very pleasant sleep was great. Been staying there several times now and will continueMore</t>
   </si>
   <si>
-    <t>Z662EYantoniov</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r527596970-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -378,24 +496,12 @@
     <t>09/26/2017</t>
   </si>
   <si>
-    <t>Bed bugs</t>
-  </si>
-  <si>
-    <t>The room we stayed at had bed bugs and ticks on the bed. When we asked the front desk if we could switch rooms or get new sheets anything at all to help us she was not able to help us we had to leave and find another place to stay since the bed had bed bugs and ticks. I would attach the video I recorded if I was able to. I really wanted to like the place but there were ticks and bed bugs.MoreShow less</t>
-  </si>
-  <si>
     <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded September 28, 2017</t>
   </si>
   <si>
     <t>Responded September 28, 2017</t>
   </si>
   <si>
-    <t>The room we stayed at had bed bugs and ticks on the bed. When we asked the front desk if we could switch rooms or get new sheets anything at all to help us she was not able to help us we had to leave and find another place to stay since the bed had bed bugs and ticks. I would attach the video I recorded if I was able to. I really wanted to like the place but there were ticks and bed bugs.More</t>
-  </si>
-  <si>
-    <t>Q3229RMmichaelv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r526602843-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -405,16 +511,49 @@
     <t>09/22/2017</t>
   </si>
   <si>
-    <t>Descent Price and Location</t>
-  </si>
-  <si>
-    <t>It's one of the cheaper motels in the LA area and overall it's a good place. Housekeeping and other staff are attentive. No self-use laundry on site and the continental breakfast could use a few more choices, but overall a good experience.MoreShow less</t>
-  </si>
-  <si>
-    <t>It's one of the cheaper motels in the LA area and overall it's a good place. Housekeeping and other staff are attentive. No self-use laundry on site and the continental breakfast could use a few more choices, but overall a good experience.More</t>
-  </si>
-  <si>
-    <t>simplyalee</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r523915400-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>523915400</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Housekeeping left my door open!</t>
+  </si>
+  <si>
+    <t>My friend and I returned to our room around 3am of our second night and our door was open. Turns out that housekeeping had entered to clean (even though we had left a DND sign on the door) and had not pulled the door behind them. When I called and requested a follow up, I did not get any contact the remainder of my stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>My friend and I returned to our room around 3am of our second night and our door was open. Turns out that housekeeping had entered to clean (even though we had left a DND sign on the door) and had not pulled the door behind them. When I called and requested a follow up, I did not get any contact the remainder of my stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r522412410-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>522412410</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing service </t>
+  </si>
+  <si>
+    <t>We came from out of town the hotel made us feel comfortable and they were super friendly... The breakfast was delicious everything was clean and the pool was relaxing... They made our visit very pleasant coming back forsure! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>We came from out of town the hotel made us feel comfortable and they were super friendly... The breakfast was delicious everything was clean and the pool was relaxing... They made our visit very pleasant coming back forsure! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r522410724-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -423,30 +562,15 @@
     <t>522410724</t>
   </si>
   <si>
-    <t>09/07/2017</t>
-  </si>
-  <si>
     <t>i highly recommend!</t>
   </si>
   <si>
     <t>this would be my second time staying here and i love it, the staff is amazing! i love how theyve been upgrading the rooms, really nice &amp; clean. definitely my go to place!  the kids loved going to the pool! so much fun!MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded September 11, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 11, 2017</t>
-  </si>
-  <si>
     <t>this would be my second time staying here and i love it, the staff is amazing! i love how theyve been upgrading the rooms, really nice &amp; clean. definitely my go to place!  the kids loved going to the pool! so much fun!More</t>
   </si>
   <si>
-    <t>luissY9230AK</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r519175292-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -456,24 +580,12 @@
     <t>08/29/2017</t>
   </si>
   <si>
-    <t>Repeat customer</t>
-  </si>
-  <si>
-    <t>Good place to stay expecting a clean room, quiet sleep, ample parking, and closeness to freeway.MoreShow less</t>
-  </si>
-  <si>
     <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 31, 2017</t>
   </si>
   <si>
     <t>Responded August 31, 2017</t>
   </si>
   <si>
-    <t>Good place to stay expecting a clean room, quiet sleep, ample parking, and closeness to freeway.More</t>
-  </si>
-  <si>
-    <t>Jerry L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r517422906-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -483,12 +595,6 @@
     <t>08/25/2017</t>
   </si>
   <si>
-    <t>Not bad stay</t>
-  </si>
-  <si>
-    <t>I ordered room thought it was prepaid but site did not charge my credit card. called them about 530 about half hour before i was going to lose room for my card not being charged. but that was taken care of. checked in about 1000pm. room was clean no real issues. noise from next room in middle of night. pool was little dirty and very cold. sauna was cold. parking lot was clean. did not take advantage of the breakfast. i left my drivers license and did not find out til next day when my card key did not work and lady said she tried to call me. thought with my drivers license they should have went further for i was in los angeles without my license. but i would stay there. good rateMoreShow less</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -498,10 +604,55 @@
     <t>Responded August 29, 2017</t>
   </si>
   <si>
-    <t>I ordered room thought it was prepaid but site did not charge my credit card. called them about 530 about half hour before i was going to lose room for my card not being charged. but that was taken care of. checked in about 1000pm. room was clean no real issues. noise from next room in middle of night. pool was little dirty and very cold. sauna was cold. parking lot was clean. did not take advantage of the breakfast. i left my drivers license and did not find out til next day when my card key did not work and lady said she tried to call me. thought with my drivers license they should have went further for i was in los angeles without my license. but i would stay there. good rateMore</t>
-  </si>
-  <si>
-    <t>864marycw</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r511807532-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>511807532</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>detail is nice and looks better in visual concept</t>
+  </si>
+  <si>
+    <t>It was quite staff were friendly quick to check me in. Overall I would stay here again and recommend to others. Also pool on premises awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>It was quite staff were friendly quick to check me in. Overall I would stay here again and recommend to others. Also pool on premises awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r507889238-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>507889238</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Big room big but the rest was.....</t>
+  </si>
+  <si>
+    <t>Internet didn't work and young gal front desk was horribly rude and more concerned about being on her phone.....MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Internet didn't work and young gal front desk was horribly rude and more concerned about being on her phone.....More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r506884159-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -519,21 +670,9 @@
     <t>By far the WORST Days Inn ever. Staff barely spoke English. The bathroom had mildew stains all over it. Tub was filthy, no actual cover on bed, long strands of hair on bathroom door and sink. No wash cloths, asked for cover and cloths, not understood. Worst part it had a terrible smoke/marijuana smell. Yes it was non-smoking.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 7, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 7, 2017</t>
-  </si>
-  <si>
     <t>By far the WORST Days Inn ever. Staff barely spoke English. The bathroom had mildew stains all over it. Tub was filthy, no actual cover on bed, long strands of hair on bathroom door and sink. No wash cloths, asked for cover and cloths, not understood. Worst part it had a terrible smoke/marijuana smell. Yes it was non-smoking.More</t>
   </si>
   <si>
-    <t>solorioangie67</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r506569311-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -558,9 +697,6 @@
     <t>Horrible experience , was severely bitten by mites over my stay, contacted manager and only offered a 10% discount , agreed to cover doctor visit and medication when i got back home but no full refund on stay. Will not be staying here again. I work in sales and had to stay home for a week until infection cleared up due to bites. Horrible experience if hotel wants my business again , they will have to make it right and refund my full stay. contact me  solorioangie67@gmail.comMore</t>
   </si>
   <si>
-    <t>MsFre F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r505609716-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -585,7 +721,46 @@
     <t>I have no complaints. Got to the room late night, but my room was ready for me. I didn't try the breakfast. Overall, my room was spacious and I felt safe in the neighborhood, even coming and going late nights. There are plenty of eateries, gas stations, and a Target/CVS in walking distance. More</t>
   </si>
   <si>
-    <t>cynthiabH9812RZ</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r502731615-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>502731615</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Large, clean rooms. Great parking. Excellent value for space and location, unless you require cable TV.Just don't get caught in the tanker truck traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Large, clean rooms. Great parking. Excellent value for space and location, unless you require cable TV.Just don't get caught in the tanker truck traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r501657282-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>501657282</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>I can't believe this Days Inn is a Wyndham property</t>
+  </si>
+  <si>
+    <t>At check in I asked where the ice machine was and they told me it was in the back corner  under the stairwell. I hiked back there after check in  only to find the out of order sign that have been there a for long time. I then called the front office and asked  where the ice machine was and they told me in the back corner under the stairwell and I asked if there was more than one ice machine and they said no and I said so you're only ice machine is the one that says out of order on it and the gal replied oh yeah and hung up on me. I can't believe they'd sent someone to get ice from a machine that hadn't worked in a long time.  I then went to the Jacuzzi and it didn't work and I found a room service attendant and asked about the Jacuzzi and they replied it hadn't worked for months.  The front door of my room did not fit right it appeared to have been previously kicked in. You can see daylight clear around the door when it was shut and you could see all the parking lot lights clear around the door at night. The door safety latch  was broken from when the door was kicked in and did not secure the door at all. The toilet was loose and had a wide line of caulk...At check in I asked where the ice machine was and they told me it was in the back corner  under the stairwell. I hiked back there after check in  only to find the out of order sign that have been there a for long time. I then called the front office and asked  where the ice machine was and they told me in the back corner under the stairwell and I asked if there was more than one ice machine and they said no and I said so you're only ice machine is the one that says out of order on it and the gal replied oh yeah and hung up on me. I can't believe they'd sent someone to get ice from a machine that hadn't worked in a long time.  I then went to the Jacuzzi and it didn't work and I found a room service attendant and asked about the Jacuzzi and they replied it hadn't worked for months.  The front door of my room did not fit right it appeared to have been previously kicked in. You can see daylight clear around the door when it was shut and you could see all the parking lot lights clear around the door at night. The door safety latch  was broken from when the door was kicked in and did not secure the door at all. The toilet was loose and had a wide line of caulk around it to try and hold it but it was all cracked up and there was a big gap between it and the floor and when you sat on it, it rocked. The chairs in the room were dirty and sticky and disgusting. The Wi-Fi is really slow and didn't work half the time and the TV has about 10 channels and more of them were Spanish channels than not. i'm fairly certain there was bedbugs because by morning I felt like I had been eat'n alive, I had little bites all over me. The room was dirty. The breakfast bar is not a breakfast bar, it's a toast bar,  if all of you like his toast, then you're in luck. They lock the lobby at 9:30 AM sharp so you can't get back in and over extend your welcome to the toast. The place was sold out so I couldn't get a different room. This place is horrible and I can't believe it's a Wyndham property. If you Google  The location it shows it as the great house inn  so it can't have been a days inn very long, I can't believe that the Wyndham chain approved this property as one of their's.MoreShow less</t>
+  </si>
+  <si>
+    <t>At check in I asked where the ice machine was and they told me it was in the back corner  under the stairwell. I hiked back there after check in  only to find the out of order sign that have been there a for long time. I then called the front office and asked  where the ice machine was and they told me in the back corner under the stairwell and I asked if there was more than one ice machine and they said no and I said so you're only ice machine is the one that says out of order on it and the gal replied oh yeah and hung up on me. I can't believe they'd sent someone to get ice from a machine that hadn't worked in a long time.  I then went to the Jacuzzi and it didn't work and I found a room service attendant and asked about the Jacuzzi and they replied it hadn't worked for months.  The front door of my room did not fit right it appeared to have been previously kicked in. You can see daylight clear around the door when it was shut and you could see all the parking lot lights clear around the door at night. The door safety latch  was broken from when the door was kicked in and did not secure the door at all. The toilet was loose and had a wide line of caulk...At check in I asked where the ice machine was and they told me it was in the back corner  under the stairwell. I hiked back there after check in  only to find the out of order sign that have been there a for long time. I then called the front office and asked  where the ice machine was and they told me in the back corner under the stairwell and I asked if there was more than one ice machine and they said no and I said so you're only ice machine is the one that says out of order on it and the gal replied oh yeah and hung up on me. I can't believe they'd sent someone to get ice from a machine that hadn't worked in a long time.  I then went to the Jacuzzi and it didn't work and I found a room service attendant and asked about the Jacuzzi and they replied it hadn't worked for months.  The front door of my room did not fit right it appeared to have been previously kicked in. You can see daylight clear around the door when it was shut and you could see all the parking lot lights clear around the door at night. The door safety latch  was broken from when the door was kicked in and did not secure the door at all. The toilet was loose and had a wide line of caulk around it to try and hold it but it was all cracked up and there was a big gap between it and the floor and when you sat on it, it rocked. The chairs in the room were dirty and sticky and disgusting. The Wi-Fi is really slow and didn't work half the time and the TV has about 10 channels and more of them were Spanish channels than not. i'm fairly certain there was bedbugs because by morning I felt like I had been eat'n alive, I had little bites all over me. The room was dirty. The breakfast bar is not a breakfast bar, it's a toast bar,  if all of you like his toast, then you're in luck. They lock the lobby at 9:30 AM sharp so you can't get back in and over extend your welcome to the toast. The place was sold out so I couldn't get a different room. This place is horrible and I can't believe it's a Wyndham property. If you Google  The location it shows it as the great house inn  so it can't have been a days inn very long, I can't believe that the Wyndham chain approved this property as one of their's.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r501656203-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -594,30 +769,9 @@
     <t>501656203</t>
   </si>
   <si>
-    <t>07/13/2017</t>
-  </si>
-  <si>
-    <t>My stay</t>
-  </si>
-  <si>
-    <t>Used the room for 2 days. Everything was fine except the sink was clogged the WHOLE time. I had to use the shower for everything. You get what you pay for I guess And the front desk people are rude. and the breakfast is WEAK. internet connection was poor as wellMoreShow less</t>
-  </si>
-  <si>
     <t>June 2017</t>
   </si>
   <si>
-    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded July 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 19, 2017</t>
-  </si>
-  <si>
-    <t>Used the room for 2 days. Everything was fine except the sink was clogged the WHOLE time. I had to use the shower for everything. You get what you pay for I guess And the front desk people are rude. and the breakfast is WEAK. internet connection was poor as wellMore</t>
-  </si>
-  <si>
-    <t>Dana P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r499003792-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -642,9 +796,6 @@
     <t>ice machine and whirlpool were both broken. Door on fridge would not stay shut. Told front desk. No one ever came to fix entire week we were there.  Beds were a little too firm for my taste.  Air conditioner in room next to us probably needs something done to it. Was draining a ton of water in a big puddle that only got cleaned up once entire time we were there. Wi fi was spotty at best. Their continental breakfast consists of cereal, oatmeal, yogurt, toast, apples, coffee and juice.  No other fruit, no pastries, no waffle makers, nothing else. A couple of better things were it was clean enough and close to a variety of places to eat and a few stores.More</t>
   </si>
   <si>
-    <t>charleshK8367WY</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r496011307-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -654,22 +805,40 @@
     <t>06/25/2017</t>
   </si>
   <si>
-    <t>Convenient location and comfortable, Atmoshphere at night was loud.</t>
-  </si>
-  <si>
-    <t>Very convenient location and room was nice. Other guest were very loud on first nite. Kid was crying all nite. Adults were talking loud late night until 3am. Very noisey. Days Inn in Hawthorne had a very nice breakfast.They had fresh pastries and they invested in their breakfast. This one had toast and cereal. Very poor choice. Stayed there a week and the hot tub was broken the entire time.MoreShow less</t>
-  </si>
-  <si>
     <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded June 30, 2017</t>
   </si>
   <si>
     <t>Responded June 30, 2017</t>
   </si>
   <si>
-    <t>Very convenient location and room was nice. Other guest were very loud on first nite. Kid was crying all nite. Adults were talking loud late night until 3am. Very noisey. Days Inn in Hawthorne had a very nice breakfast.They had fresh pastries and they invested in their breakfast. This one had toast and cereal. Very poor choice. Stayed there a week and the hot tub was broken the entire time.More</t>
-  </si>
-  <si>
-    <t>David D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r494691571-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>494691571</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r491786796-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>491786796</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Vacation stay</t>
+  </si>
+  <si>
+    <t>The stay was ok. We were staying only to sleep.  The hot tub was not working and the pool was dirty. Aside from that the housekeepers were sweet.  The breakfast lady was not very friendly and took one out of the 4 tables to be on her phone everyday we were there but it was cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>The stay was ok. We were staying only to sleep.  The hot tub was not working and the pool was dirty. Aside from that the housekeepers were sweet.  The breakfast lady was not very friendly and took one out of the 4 tables to be on her phone everyday we were there but it was cleanMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r489706816-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -687,13 +856,7 @@
     <t>The room was clean and quiet. Staff was friendly and competent. Neighborhood was not scary, but that is all I can say about it. "Continental breakfast" was cold cereal, toast, coffee, and . . . nothing else. Free WiFi is offered, but I could not connect my phone to it (Android). An O.K. cheap L.A. hotel.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>The room was clean and quiet. Staff was friendly and competent. Neighborhood was not scary, but that is all I can say about it. "Continental breakfast" was cold cereal, toast, coffee, and . . . nothing else. Free WiFi is offered, but I could not connect my phone to it (Android). An O.K. cheap L.A. hotel.More</t>
-  </si>
-  <si>
-    <t>Brian W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r487033490-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -724,9 +887,6 @@
 The one complaint previous reviewers have discussed that is somewhat accurate is that this property has a very limited number of TV channels available.  They only have local channels + CNN + ESPN...I stayed at this property from May 19 to May 21, 2017.  I found it to be an excellent value.  The hotel was clean and comfortable.  It is conveniently located just south of downtown LA.  Since that's where my business appointment was, this property was very convenient and reasonably priced.I did not experience any of the problems mentioned by some recent reviewers.  While the lobby was closed when I arrived at 8:00 P.M., I rang the night bell and the receptionist appeared promptly at the night window. I did not experience any rudeness or inappropriate behavior.As stated above, the room was clean.  There was no garbage in the room or any other dirt or dirty things.  There were no bed bugs or other creepy-crawly things.  It did not appear that cleaning staff had been in any way negligent.The area did not seem unsafe.  There is a great deal of retail in the immediate vicinity.  The area is well lit.  I did not see any shady characters hanging around the area or the property.The property is next door to an Arco oil terminal.  There also is a small oil refinery nearby.  However, I did not experience any problems with smoke, fumes or other issues.The one complaint previous reviewers have discussed that is somewhat accurate is that this property has a very limited number of TV channels available.  They only have local channels + CNN + ESPN + 3 Spanish channels.  This was fine for me for a short stay, but might not be enough for some travellers.  Reception on one channel (KCAL, channel 9) was a bit fuzzy, but tolerable.  Reception on all other channels was clear.More</t>
   </si>
   <si>
-    <t>Ernie R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r484146684-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -751,7 +911,40 @@
     <t>We checked in Tues may 9th for 2 nights till Thurs 11th. we decided to add a night, so Wed night we talked to Alexis as we booked another night using trip advisor..  the next morning while I'm at work I get a voicemail saying that i was supposed to be checked out.. and I will be charged $95... When i booked the room for $80... so after work i go to talk to someone, and the lady at the desk named Maria was extremely rude... I tell her the whole story, about how i booked the room and such, she's laughing in my face.. I'm already annoyed, she's hitting her hand on the desk for every word she speaks... she asks me questions and when i try to answer she constantly interrupts me.. I ask for a mgr. She says there's not 1 there.. I ask for a phone number or a mgr name.. she refuses to give it to me... she's still laughing!! By now I'm irate... I start yelling that this is unacceptable.. she asks me if I'm autistic... I couldn't believe it.. now I'm cussing her out.. the hell with being nice! I call days inn/wyndham customer care #.. they can't do anything.. so now I paying $95 for a room I booked for $80.. then to top it off, they charged my card twice.. I call to let them know they charged me 2x, Maria... We checked in Tues may 9th for 2 nights till Thurs 11th. we decided to add a night, so Wed night we talked to Alexis as we booked another night using trip advisor..  the next morning while I'm at work I get a voicemail saying that i was supposed to be checked out.. and I will be charged $95... When i booked the room for $80... so after work i go to talk to someone, and the lady at the desk named Maria was extremely rude... I tell her the whole story, about how i booked the room and such, she's laughing in my face.. I'm already annoyed, she's hitting her hand on the desk for every word she speaks... she asks me questions and when i try to answer she constantly interrupts me.. I ask for a mgr. She says there's not 1 there.. I ask for a phone number or a mgr name.. she refuses to give it to me... she's still laughing!! By now I'm irate... I start yelling that this is unacceptable.. she asks me if I'm autistic... I couldn't believe it.. now I'm cussing her out.. the hell with being nice! I call days inn/wyndham customer care #.. they can't do anything.. so now I paying $95 for a room I booked for $80.. then to top it off, they charged my card twice.. I call to let them know they charged me 2x, Maria answered, and says "oh it's you"... whatever, I'm being nice... she tells me that debit cards always get charged twice... which she's lying, cause for my 1st 2 nights there, I didn't get charged twice by Alexis.... only by the lady shaped like a rhino asking customers if they're autistic named "Maria"... other than her, everything was pretty good... days inn in south gate, please replace Maria cause she's making your business look extremely bad! More</t>
   </si>
   <si>
-    <t>97dennyr56</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r478591188-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>478591188</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>This was a good value, the location is in a high-traffic area so that's one downside but overall I'd say it's a good option. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>This was a good value, the location is in a high-traffic area so that's one downside but overall I'd say it's a good option. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r477466169-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>477466169</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>I can see the light</t>
+  </si>
+  <si>
+    <t>While this was a great location and the staff was very nice and helpful. I'd have to say the rooms have a very strong smell of disinfectant mixed with cigarette smoke. Not a pleasant smell. Luckily I always bring a small travel size Lysol spray. But I'd say it's in the carpets and chairs so unless they change those out no chance of really getting rid of the smell. The lysol did help...It wasn't until night time that I realized I was placed in the worst room there is on the lot room 105 first floor right in front of the stairwell and the ice maker. The light from the stairwell is as bright as the sun and of course I slept facing the windows. I hate light at night time. And the noise from the ice machine...it would wake me out of my sleep and let me tell you the guest use it at all hours of the night and morning. So stay away from rooms 104,105, &amp;106 right next to the stairwell. The rooms are a nice size and the extra rails in the shower are great for those who may need the help in and out of the tub since they don't have roll/walk-in showers at this location. (At least that;s what I was told). MoreShow less</t>
+  </si>
+  <si>
+    <t>While this was a great location and the staff was very nice and helpful. I'd have to say the rooms have a very strong smell of disinfectant mixed with cigarette smoke. Not a pleasant smell. Luckily I always bring a small travel size Lysol spray. But I'd say it's in the carpets and chairs so unless they change those out no chance of really getting rid of the smell. The lysol did help...It wasn't until night time that I realized I was placed in the worst room there is on the lot room 105 first floor right in front of the stairwell and the ice maker. The light from the stairwell is as bright as the sun and of course I slept facing the windows. I hate light at night time. And the noise from the ice machine...it would wake me out of my sleep and let me tell you the guest use it at all hours of the night and morning. So stay away from rooms 104,105, &amp;106 right next to the stairwell. The rooms are a nice size and the extra rails in the shower are great for those who may need the help in and out of the tub since they don't have roll/walk-in showers at this location. (At least that;s what I was told). More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r475982216-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -769,9 +962,6 @@
     <t>Days Inn &amp; Suites South Gate8821 Garfield Ave :Bed bugs infested place. The worst ever experience in my life. Awful old furniture that practically falls apart in pieces. Filthy carpeted floor, restrooms in non smoking room smells like a bottom rock disgusting ash tray. Had to run the fan for several hours and still worst smelling premise. Everything would have been bearable if only not the constant police activity inside the hotel. It looks like danger gang activity hotel. Although we paid well over $200 dollars for only 3 nights we were fooled by misleading star rating reviews. Woke up 3 am with itching arm, then shoulder and finally my right ear. The most outrageous nasty stay in whole world of hotel businesses. My second arm was bitten by bed bugs while we were trying to gather things and check out. Bugs were attacking us all the night long. Front desk could not switch the room or at least get another clean place. Instead the lady said if you found one there should not be many, those are groups. Also she added that If I found one bug then that's probably the only one that was there. So, no big deal? Or no big surprise for front desk about infected rooms?Less then 1 star hotel.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded April 19, 2017</t>
   </si>
   <si>
@@ -781,9 +971,6 @@
     <t>Days Inn &amp; Suites South Gate8821 Garfield Ave :Bed bugs infested place. The worst ever experience in my life. Awful old furniture that practically falls apart in pieces. Filthy carpeted floor, restrooms in non smoking room smells like a bottom rock disgusting ash tray. Had to run the fan for several hours and still worst smelling premise. Everything would have been bearable if only not the constant police activity inside the hotel. It looks like danger gang activity hotel. Although we paid well over $200 dollars for only 3 nights we were fooled by misleading star rating reviews. Woke up 3 am with itching arm, then shoulder and finally my right ear. The most outrageous nasty stay in whole world of hotel businesses. My second arm was bitten by bed bugs while we were trying to gather things and check out. Bugs were attacking us all the night long. Front desk could not switch the room or at least get another clean place. Instead the lady said if you found one there should not be many, those are groups. Also she added that If I found one bug then that's probably the only one that was there. So, no big deal? Or no big surprise for front desk about infected rooms?Less then 1 star hotel.More</t>
   </si>
   <si>
-    <t>868jagp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r473190681-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -802,9 +989,6 @@
     <t>Room was a bit smelly and the TV not at all good. I could barely see things clearly. Advertised for great smart TV, but was not. NEEDS TO IMPROVE TV.More</t>
   </si>
   <si>
-    <t>katherineg328</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r472976232-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -826,7 +1010,49 @@
     <t>My fiancé and I have decided this is our favorite get away spot when we need a low alone time.More</t>
   </si>
   <si>
-    <t>elizabethsC1995HZ</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r458198762-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>458198762</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r455704481-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>455704481</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Very average motel stay</t>
+  </si>
+  <si>
+    <t>A little mold in the show. Old style bath. Busy air traffic over the hotel. Loud walkways just outside the doors. Just plain a noisy place. Poor choice of TV programming. Might as well not have breakfast, not much offered and poor layout of breakfast area. Glass all around check in, must not be a safe area. Homeless people on the street. Not impressed, but at least it was a cheap motel stay. Might as well book Motel 6. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>A little mold in the show. Old style bath. Busy air traffic over the hotel. Loud walkways just outside the doors. Just plain a noisy place. Poor choice of TV programming. Might as well not have breakfast, not much offered and poor layout of breakfast area. Glass all around check in, must not be a safe area. Homeless people on the street. Not impressed, but at least it was a cheap motel stay. Might as well book Motel 6. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r455070267-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -838,27 +1064,6 @@
     <t>01/26/2017</t>
   </si>
   <si>
-    <t>Not that great</t>
-  </si>
-  <si>
-    <t>The room had ants, it smelled so bad the breakfast area in the lobby and dog poop from night before, they wouldn't give me an extra towel when I asked I was double charges.MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2017</t>
-  </si>
-  <si>
-    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded February 6, 2017</t>
-  </si>
-  <si>
-    <t>Responded February 6, 2017</t>
-  </si>
-  <si>
-    <t>The room had ants, it smelled so bad the breakfast area in the lobby and dog poop from night before, they wouldn't give me an extra towel when I asked I was double charges.More</t>
-  </si>
-  <si>
-    <t>Wayne B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r449964229-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -883,9 +1088,6 @@
     <t>Great location for Rose Bowl, Lia Angeles, Disney, and other things, basic room, breakfast was huge disappointment!!More</t>
   </si>
   <si>
-    <t>476lynnk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r445740170-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -895,19 +1097,61 @@
     <t>12/20/2016</t>
   </si>
   <si>
-    <t>Trashy</t>
-  </si>
-  <si>
-    <t>The room was not very clean, there was trash from prior guests. Not a place for diabetics breakfast was all carbs.MoreShow less</t>
-  </si>
-  <si>
     <t>December 2016</t>
   </si>
   <si>
-    <t>The room was not very clean, there was trash from prior guests. Not a place for diabetics breakfast was all carbs.More</t>
-  </si>
-  <si>
-    <t>RomanHouston</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r443313949-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>443313949</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Bad customer service and hospitality</t>
+  </si>
+  <si>
+    <t>I stayed there a few nights in the accessible room cause im handicap but i checked out and when i when to check back in there were no accessible rooms available on with a jacuzzi so paid extra and one night of stayed there my son got a little red mark on his face .. then when i came back the next day in the night i seen a insect or animal i dont know i took pictures of it and i went to tell them i was only offered to change rooms.. then i checked out and when i came back the next day they said they couldn't rent a room to me any more very rude i been staying there cause we came from out of town for a whole month and i been a guest in alot of days inn but days inn in South gate was not somewhere someone would want to go especially on family trips and with kids very disrespectful..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>I stayed there a few nights in the accessible room cause im handicap but i checked out and when i when to check back in there were no accessible rooms available on with a jacuzzi so paid extra and one night of stayed there my son got a little red mark on his face .. then when i came back the next day in the night i seen a insect or animal i dont know i took pictures of it and i went to tell them i was only offered to change rooms.. then i checked out and when i came back the next day they said they couldn't rent a room to me any more very rude i been staying there cause we came from out of town for a whole month and i been a guest in alot of days inn but days inn in South gate was not somewhere someone would want to go especially on family trips and with kids very disrespectful..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r433273473-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>433273473</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Price was good for location</t>
+  </si>
+  <si>
+    <t>We booked in advance as this place was only 20 tof 30 minutes to USC Keck. Continental Breakfast was decent and room was good. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>We booked in advance as this place was only 20 tof 30 minutes to USC Keck. Continental Breakfast was decent and room was good. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r432803594-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -937,9 +1181,6 @@
     <t>Second time visiting California and I stayed here again. Enjoyed the breakfast and room was great once again! Staff was also very accommodating! I definitely plan on staying here again for my next visit to California!More</t>
   </si>
   <si>
-    <t>ledwine2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r431261564-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -949,21 +1190,6 @@
     <t>10/24/2016</t>
   </si>
   <si>
-    <t>Worst overall</t>
-  </si>
-  <si>
-    <t>Service at night window was unfriendly. He forgot to do the basic step of programming card to room. Looked busy with his phone. Room was dirty and everything looks out-dated...MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>Service at night window was unfriendly. He forgot to do the basic step of programming card to room. Looked busy with his phone. Room was dirty and everything looks out-dated...More</t>
-  </si>
-  <si>
-    <t>748katherineg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r431250864-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -979,7 +1205,40 @@
     <t>Very nice lil noisy kids running around yelling in the room above us and the bathroom was smelly other then that great and one more thing PLEASE GET BETTER CHANNELS.  THANK YOU. OTHER THAN AWESOME STAY NO REGRET'S. More</t>
   </si>
   <si>
-    <t>Charles G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r430747681-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>430747681</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Dirty towels...</t>
+  </si>
+  <si>
+    <t>Dirty towels I hear one housekeeping saying is towels look clean they dont wash them...and I found a dirty towel with hairsMoreShow less</t>
+  </si>
+  <si>
+    <t>Dirty towels I hear one housekeeping saying is towels look clean they dont wash them...and I found a dirty towel with hairsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r426165162-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>426165162</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>I'll Be Back</t>
+  </si>
+  <si>
+    <t>One discrepancy with the rate procedures but overall the Guest Services are pleasant, helpful and accomodating.This site is Beautiful and the location is Great! Everything within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>One discrepancy with the rate procedures but overall the Guest Services are pleasant, helpful and accomodating.This site is Beautiful and the location is Great! Everything within walking distance.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r421640156-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -1006,9 +1265,6 @@
     <t>Our stay at Days Inn in South Gate, CA was delightful!  The accommodations were just what was described and shown on their website.  We stayed in a disability accommodation room which had all of the safety precautions in place--it was a large spacious room that accommodated walker or wheelchair needs.  The staff were very friendly and helpful.  The Inn was central for our visiting needs and had all facets of entertainment and eateries within easy travel reach.More</t>
   </si>
   <si>
-    <t>280waleedz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r420371930-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1018,21 +1274,6 @@
     <t>09/19/2016</t>
   </si>
   <si>
-    <t>The dirtiest hotel ever</t>
-  </si>
-  <si>
-    <t>Covered with filth; disgustingly dirty, no breakfast, empty coffee pots with some french toast.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Covered with filth; disgustingly dirty, no breakfast, empty coffee pots with some french toast.More</t>
-  </si>
-  <si>
-    <t>Eric H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r420208726-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1054,7 +1295,31 @@
     <t>Came to visit family. They recommended this hotel. I stayed for a week. Rooms were nice. nice breakfast. Great location.  Friendly Staff. I would definitely stay here again. I would recommned this hotel to my family and friends.More</t>
   </si>
   <si>
-    <t>384cinthyar</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r411159056-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>411159056</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r407109536-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>407109536</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r404938526-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -1066,27 +1331,12 @@
     <t>08/13/2016</t>
   </si>
   <si>
-    <t>Room not ready upon arrival...</t>
-  </si>
-  <si>
-    <t>Called front desk to resolvean issue with tv and could fix it....Also arrived at 1 and room was not ready but they do expect us to returned at 11 am next day and if they haven't seen you they call to remind we have to leave...MoreShow less</t>
-  </si>
-  <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded August 16, 2016</t>
   </si>
   <si>
     <t>Responded August 16, 2016</t>
   </si>
   <si>
-    <t>Called front desk to resolvean issue with tv and could fix it....Also arrived at 1 and room was not ready but they do expect us to returned at 11 am next day and if they haven't seen you they call to remind we have to leave...More</t>
-  </si>
-  <si>
-    <t>679jafar</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r401366774-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1114,9 +1364,6 @@
     <t>i was not treat with respect,the pillow for sleeping was very very bad and i did not sleep good.More</t>
   </si>
   <si>
-    <t>marchG2625TD</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r399609240-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1126,13 +1373,46 @@
     <t>07/31/2016</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>arpiebosnoyan</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r395267631-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>395267631</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Everything was great the only thing I didn't like about the room? Was that it had a bad smell... Other than that everything was clean and good representation service was also good MoreShow less</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Everything was great the only thing I didn't like about the room? Was that it had a bad smell... Other than that everything was clean and good representation service was also good More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r394879054-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>394879054</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>We were driving all day, and looking for a room for a couple hours that night. No vacancies anywhere. We were tired and frustrated and just needed some sleep. I found availability at this place. We checked in, which took quite some time at the night window. That's neither here nor there. We were extremely hungry, after checking in drove to a restaurant minutes away and brought it back to the room. After getting in the dungeon and looking around, eeek. I open the curtains, all you see is a white wall with barbed wire all across the top. Makes you wonder what are they trying to keep out? I won't get into a bed before my husband pulls back the blankets and sheets and examines it first. Seemed to be clean, except for the hair in the bed. And the horrible brown, runny stain over the box spring. Could have been a murder scene or a bad case of the runs. Why did we stay, we were tired and cranky and couldn't find another room under $300.00. Didn't dare lay our legs over the side. The pillow, if you can call it that, was ridiculous. It was about 7 inches by 7 inches. My head barely fit on it. Tried to turn on tv to watch the news before going to sleep. Couldn't get tv to turn on. Forget changing the channels, that wasn't happening either. Couldn't even turn...We were driving all day, and looking for a room for a couple hours that night. No vacancies anywhere. We were tired and frustrated and just needed some sleep. I found availability at this place. We checked in, which took quite some time at the night window. That's neither here nor there. We were extremely hungry, after checking in drove to a restaurant minutes away and brought it back to the room. After getting in the dungeon and looking around, eeek. I open the curtains, all you see is a white wall with barbed wire all across the top. Makes you wonder what are they trying to keep out? I won't get into a bed before my husband pulls back the blankets and sheets and examines it first. Seemed to be clean, except for the hair in the bed. And the horrible brown, runny stain over the box spring. Could have been a murder scene or a bad case of the runs. Why did we stay, we were tired and cranky and couldn't find another room under $300.00. Didn't dare lay our legs over the side. The pillow, if you can call it that, was ridiculous. It was about 7 inches by 7 inches. My head barely fit on it. Tried to turn on tv to watch the news before going to sleep. Couldn't get tv to turn on. Forget changing the channels, that wasn't happening either. Couldn't even turn it off, one of us had to get up from the bed and pull the plug out to turn it off. Fast forward to the next morning. Wake up, look up and see something. Had to put my glasses on to confirm what I thought I saw. All these disgusting spots all over the ceiling. Was it black mold, I sure as hell hope not. Did someone open a bottle of soda and spray it all over the ceiling, maybe. Now it's time to dry my hair. Go to grab it, first there's an inch of dirt or dust all over the cord, then I disturbed a spider who seemed to be living in and near the cord and plug. Lovely. The most disgusting hotel room we have ever stayed at. Complained the next morning upon check out. Employee said she would tell someone and refund money to our card. That didn't happen. Called again yesterday to complain about not receiving refund, she said she would relay message to manager. Called again today, they say no refund will be given. I'll be making a formal complaint on this one. We've got all our photos to document our accusations. I'm not a prude or diva by no means, but this place ,this particular room and bed were absolutely unacceptable for travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were driving all day, and looking for a room for a couple hours that night. No vacancies anywhere. We were tired and frustrated and just needed some sleep. I found availability at this place. We checked in, which took quite some time at the night window. That's neither here nor there. We were extremely hungry, after checking in drove to a restaurant minutes away and brought it back to the room. After getting in the dungeon and looking around, eeek. I open the curtains, all you see is a white wall with barbed wire all across the top. Makes you wonder what are they trying to keep out? I won't get into a bed before my husband pulls back the blankets and sheets and examines it first. Seemed to be clean, except for the hair in the bed. And the horrible brown, runny stain over the box spring. Could have been a murder scene or a bad case of the runs. Why did we stay, we were tired and cranky and couldn't find another room under $300.00. Didn't dare lay our legs over the side. The pillow, if you can call it that, was ridiculous. It was about 7 inches by 7 inches. My head barely fit on it. Tried to turn on tv to watch the news before going to sleep. Couldn't get tv to turn on. Forget changing the channels, that wasn't happening either. Couldn't even turn...We were driving all day, and looking for a room for a couple hours that night. No vacancies anywhere. We were tired and frustrated and just needed some sleep. I found availability at this place. We checked in, which took quite some time at the night window. That's neither here nor there. We were extremely hungry, after checking in drove to a restaurant minutes away and brought it back to the room. After getting in the dungeon and looking around, eeek. I open the curtains, all you see is a white wall with barbed wire all across the top. Makes you wonder what are they trying to keep out? I won't get into a bed before my husband pulls back the blankets and sheets and examines it first. Seemed to be clean, except for the hair in the bed. And the horrible brown, runny stain over the box spring. Could have been a murder scene or a bad case of the runs. Why did we stay, we were tired and cranky and couldn't find another room under $300.00. Didn't dare lay our legs over the side. The pillow, if you can call it that, was ridiculous. It was about 7 inches by 7 inches. My head barely fit on it. Tried to turn on tv to watch the news before going to sleep. Couldn't get tv to turn on. Forget changing the channels, that wasn't happening either. Couldn't even turn it off, one of us had to get up from the bed and pull the plug out to turn it off. Fast forward to the next morning. Wake up, look up and see something. Had to put my glasses on to confirm what I thought I saw. All these disgusting spots all over the ceiling. Was it black mold, I sure as hell hope not. Did someone open a bottle of soda and spray it all over the ceiling, maybe. Now it's time to dry my hair. Go to grab it, first there's an inch of dirt or dust all over the cord, then I disturbed a spider who seemed to be living in and near the cord and plug. Lovely. The most disgusting hotel room we have ever stayed at. Complained the next morning upon check out. Employee said she would tell someone and refund money to our card. That didn't happen. Called again yesterday to complain about not receiving refund, she said she would relay message to manager. Called again today, they say no refund will be given. I'll be making a formal complaint on this one. We've got all our photos to document our accusations. I'm not a prude or diva by no means, but this place ,this particular room and bed were absolutely unacceptable for travelers.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r392333214-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -1150,18 +1430,9 @@
     <t>I had a very good experience at this hotel. I was only there for 2 nights and the room was very clean, bed was comfortable, and the staff was very friendly and helpful. They answered all my questions when needed. Parking was easy and the location was great. Many eating places in close distance. Overall, I would definitely recommend this hotel for your next stay.MoreShow less</t>
   </si>
   <si>
-    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded July 25, 2016</t>
-  </si>
-  <si>
-    <t>Responded July 25, 2016</t>
-  </si>
-  <si>
     <t>I had a very good experience at this hotel. I was only there for 2 nights and the room was very clean, bed was comfortable, and the staff was very friendly and helpful. They answered all my questions when needed. Parking was easy and the location was great. Many eating places in close distance. Overall, I would definitely recommend this hotel for your next stay.More</t>
   </si>
   <si>
-    <t>M1116XZchrisb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r391902596-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1207,7 +1478,31 @@
     <t>Hotel was excellent for the price! Location was perfect and the front desk accommodated any request I had. It was extremely clean. The hotel provided a free breakfast which had many different items to choose from. Generally parking isn't free in California so that was a plus!More</t>
   </si>
   <si>
-    <t>Eldiyar K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r384245891-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>384245891</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Sue P, General Manager at Days Inn &amp; Suites by Wyndham South Gate, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r383741426-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>383741426</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r371958812-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -1228,9 +1523,6 @@
     <t>Came here with family, were planning to stay for 5 days. As soon as came into the room realized that we cannot stay here for that long. Room smells really bad.Also room has all old stuff like furniture, tv, dryer everything is from 80th.      This place is not for long term vacations.  It is not worth 110 dollars.More</t>
   </si>
   <si>
-    <t>950clauss</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r369989987-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1252,9 +1544,6 @@
     <t>The place was kinda dumpy, the staff was entirely indifferent, the room had a night table lamp with no light bulb in it, the plumbing leaked all over the carpet in the room (drip... drip...), the furniture was beat up and somewhat unsuited the the room.The only positives were, it was cheap and the wifi worked well.More</t>
   </si>
   <si>
-    <t>smagana85</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r368483135-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1270,7 +1559,33 @@
     <t>Responded April 30, 2016</t>
   </si>
   <si>
-    <t>Vanessa C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r367852168-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>367852168</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r365689062-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>365689062</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>overall you get what you pay for</t>
+  </si>
+  <si>
+    <t>Lady that checked me in had a bad attitude. Upon getting in my room after going back downstairs to fix the key twice. At first I was impressed the size of the room was massive! We had the two queen suite. After unpacking I went to put some of our items away in the cabinet and drawers I was shocked to find the cabinet and drawers filled with empty beer cans baggies two glass pipes ,some crushed up white powder and a rotten lime that looked like it was there for weeks! I have a five year old son so I immediately inspected the rest of the room and proceeded down to the office to ask for another room or have a maid actually clean this one. The lady at the desk said the other rooms were booked and the maids were not there (quite surprised considering it was only 12:15 p.m.) Anyhow she handed me two plastic gloves and said I could clean it myself or she could give me a refund 
+Since we just drove 8 hours to get there I opted to clean it myself. Should have left but I was tired. Then the biggest problem occurred only 5 channels on the TV no cartoons for my son ALL I HAVE TO SAY IS THAT I WASN'T THE ONLY ONE WHO FELT CHEATED. DEFINITELY WON'T BE BACK! However I believe the majority of day's Inn motels are...Lady that checked me in had a bad attitude. Upon getting in my room after going back downstairs to fix the key twice. At first I was impressed the size of the room was massive! We had the two queen suite. After unpacking I went to put some of our items away in the cabinet and drawers I was shocked to find the cabinet and drawers filled with empty beer cans baggies two glass pipes ,some crushed up white powder and a rotten lime that looked like it was there for weeks! I have a five year old son so I immediately inspected the rest of the room and proceeded down to the office to ask for another room or have a maid actually clean this one. The lady at the desk said the other rooms were booked and the maids were not there (quite surprised considering it was only 12:15 p.m.) Anyhow she handed me two plastic gloves and said I could clean it myself or she could give me a refund Since we just drove 8 hours to get there I opted to clean it myself. Should have left but I was tired. Then the biggest problem occurred only 5 channels on the TV no cartoons for my son ALL I HAVE TO SAY IS THAT I WASN'T THE ONLY ONE WHO FELT CHEATED. DEFINITELY WON'T BE BACK! However I believe the majority of day's Inn motels are now nothing but dope dens with the franchise owners not caring about there customers only pure profit. Spend a few extra bucks on a different chain it will be money well spent. Oh and one more thing they advertise free breakfast but don't have it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lady that checked me in had a bad attitude. Upon getting in my room after going back downstairs to fix the key twice. At first I was impressed the size of the room was massive! We had the two queen suite. After unpacking I went to put some of our items away in the cabinet and drawers I was shocked to find the cabinet and drawers filled with empty beer cans baggies two glass pipes ,some crushed up white powder and a rotten lime that looked like it was there for weeks! I have a five year old son so I immediately inspected the rest of the room and proceeded down to the office to ask for another room or have a maid actually clean this one. The lady at the desk said the other rooms were booked and the maids were not there (quite surprised considering it was only 12:15 p.m.) Anyhow she handed me two plastic gloves and said I could clean it myself or she could give me a refund 
+Since we just drove 8 hours to get there I opted to clean it myself. Should have left but I was tired. Then the biggest problem occurred only 5 channels on the TV no cartoons for my son ALL I HAVE TO SAY IS THAT I WASN'T THE ONLY ONE WHO FELT CHEATED. DEFINITELY WON'T BE BACK! However I believe the majority of day's Inn motels are...Lady that checked me in had a bad attitude. Upon getting in my room after going back downstairs to fix the key twice. At first I was impressed the size of the room was massive! We had the two queen suite. After unpacking I went to put some of our items away in the cabinet and drawers I was shocked to find the cabinet and drawers filled with empty beer cans baggies two glass pipes ,some crushed up white powder and a rotten lime that looked like it was there for weeks! I have a five year old son so I immediately inspected the rest of the room and proceeded down to the office to ask for another room or have a maid actually clean this one. The lady at the desk said the other rooms were booked and the maids were not there (quite surprised considering it was only 12:15 p.m.) Anyhow she handed me two plastic gloves and said I could clean it myself or she could give me a refund Since we just drove 8 hours to get there I opted to clean it myself. Should have left but I was tired. Then the biggest problem occurred only 5 channels on the TV no cartoons for my son ALL I HAVE TO SAY IS THAT I WASN'T THE ONLY ONE WHO FELT CHEATED. DEFINITELY WON'T BE BACK! However I believe the majority of day's Inn motels are now nothing but dope dens with the franchise owners not caring about there customers only pure profit. Spend a few extra bucks on a different chain it will be money well spent. Oh and one more thing they advertise free breakfast but don't have it.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r277124927-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -1302,9 +1617,6 @@
 Also, they billed us for our stay the day we checked in. It wasn't a big deal, but what if we had to cut our visit short? I hope...My boyfriend and I stayed here for 6 days. The place was okay for a South Gate motel (I grew up here). We paid 79.99/night, and that seems a little much. Decent lobby, although the rooms need to be remodeled. It felt like we were staying in a place from the 60s.There were a few ants in the shower in the morning, but nothing crazy. We never made it to the donuts and coffee, so I can't comment on that. It wasn't loud or noisy, despite being behind an Arco, the carwash, and a busy street. WiFi was free.Everything about our stay was okay, until the manager decided to go crazy on me. I was walking back to the room from Target (right across the street), and she started yelling at me about "what I was doing in 201." I told her that I didn't know what she was talking about, as we were in room 210, but she kept yelling at me. I asked her to stop yelling, and she asked for my name. She finally apologized and explained that someone had broken into a room and wasn't coming out.If someone breaks in, you call the police, not yell at anyone walking past, but that's just me.Also, they billed us for our stay the day we checked in. It wasn't a big deal, but what if we had to cut our visit short? I hope they would've refunded our money.More</t>
   </si>
   <si>
-    <t>hoynomas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r235279050-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1325,9 +1637,6 @@
 ???? Okay this doesn't make sense - No Smoking  sign on door but yet there was an ashtray on the table???  As I proceeded to walk out and down the hallway the smell of urine was atrocious along with the stairs!! DISGUSTING! ! I told the clerk at the window and she stated that she can give us our refund. I told her I would first check another hotel.... found nothing.  She then suggested to spray with ant spray to get rid of them. I reminded her that I had my baby and told her that she can't spray that around my baby!!! How stupid and ignorant in her part! ! I took my full refund and ran!!!! Never going to see me and my family returning to this dump!!!!  DON'T Waste...This was a horrible experience! ! When we checked in there was a woman behind a small glass window? ?? Made me think the area is not safe!?!? Checked in, received the key and went to the room.  No refrigerator as I had requested because we have our 5 yr. Old and our 5 month old.  I go by the sink and there I find little ants crawling every where!!! DISGUSTING!!!!  I called the front desk and she stated she would offer another room on 2nd floor. I Get THE Key AND Check Out THE 2nd room.  I walked in and right away noticed the nasty cigarette smoke???? Okay this doesn't make sense - No Smoking  sign on door but yet there was an ashtray on the table???  As I proceeded to walk out and down the hallway the smell of urine was atrocious along with the stairs!! DISGUSTING! ! I told the clerk at the window and she stated that she can give us our refund. I told her I would first check another hotel.... found nothing.  She then suggested to spray with ant spray to get rid of them. I reminded her that I had my baby and told her that she can't spray that around my baby!!! How stupid and ignorant in her part! ! I took my full refund and ran!!!! Never going to see me and my family returning to this dump!!!!  DON'T Waste YOUR money This Place is a dump!!!! :0More</t>
   </si>
   <si>
-    <t>1anony-moose</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r187552651-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -1346,7 +1655,37 @@
     <t>I booked myself a last minute stay here. Then I get told hey, pick a different city so I cancel and go change to a different hotel near Knotts Berry Farm. More touristy. Fun your thing happened. I canceled my booking less than two hours after I made it. They already charged my account. It was only pending and I was assured it'd be reversed. This morning it'd processed through and debited my account. Now I'm told my authorizion hasn't been released yet. Yeah. Now I'm told it's a ten day wait to get credited for a hotel room I never used. Also may have to cancel my trip as I didn't have money for double charging the hotel.More</t>
   </si>
   <si>
-    <t>canadablizzard</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r155415568-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>155415568</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Dirty dingy disgusting don't stay here</t>
+  </si>
+  <si>
+    <t>We asked to see a room first but it was against policy, beds were filthy, ended up going to target to buy new bedding and pillows, will never stay here again even if they paid me. Rest of the furniture was stained dirty broken and plain ol disgusting. Thankful our daughters were not with us to stay in this horendous place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r134324794-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>134324794</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Cheap, clean, but ...</t>
+  </si>
+  <si>
+    <t>In the middle of a commercial area, parking available free of charge directly in front of room. Receptionist awaits you behind a glass wall which makes you doubt this is a safe area. The room (ground floor) was big but smelled (smoker) and was hot. In the morning we could not open the curtains as everyone would have been able to look inside. If you need a cheap place this one is okay, but if you want to feel good - go elsewhere ...</t>
+  </si>
+  <si>
+    <t>July 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d82198-r62043427-Days_Inn_Suites_by_Wyndham_South_Gate-South_Gate_California.html</t>
@@ -1869,176 +2208,154 @@
       <c r="A2" t="n">
         <v>37050</v>
       </c>
-      <c r="B2" t="n">
-        <v>165218</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37050</v>
       </c>
-      <c r="B3" t="n">
-        <v>165219</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37050</v>
       </c>
-      <c r="B4" t="n">
-        <v>165220</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>68</v>
@@ -2053,88 +2370,70 @@
         <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" t="s">
+      <c r="X4" t="s">
         <v>73</v>
       </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="X4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37050</v>
       </c>
-      <c r="B5" t="n">
-        <v>165221</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2156,210 +2455,194 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37050</v>
       </c>
-      <c r="B6" t="n">
-        <v>165222</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>2</v>
       </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37050</v>
       </c>
-      <c r="B7" t="n">
-        <v>165223</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37050</v>
       </c>
-      <c r="B8" t="n">
-        <v>165224</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2381,144 +2664,136 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37050</v>
       </c>
-      <c r="B9" t="n">
-        <v>165225</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37050</v>
       </c>
-      <c r="B10" t="n">
-        <v>165226</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
         <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -2531,586 +2806,558 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37050</v>
       </c>
-      <c r="B11" t="n">
-        <v>165227</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
       <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37050</v>
       </c>
-      <c r="B12" t="n">
-        <v>165228</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" t="s">
-        <v>146</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="X12" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37050</v>
       </c>
-      <c r="B13" t="n">
-        <v>55898</v>
-      </c>
-      <c r="C13" t="s">
-        <v>151</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
         <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37050</v>
       </c>
-      <c r="B14" t="n">
-        <v>165229</v>
-      </c>
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37050</v>
       </c>
-      <c r="B15" t="n">
-        <v>165230</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37050</v>
       </c>
-      <c r="B16" t="n">
-        <v>165231</v>
-      </c>
-      <c r="C16" t="s">
-        <v>180</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K16" t="s">
-        <v>184</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="X16" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="Y16" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37050</v>
       </c>
-      <c r="B17" t="n">
-        <v>165232</v>
-      </c>
-      <c r="C17" t="s">
-        <v>189</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>192</v>
-      </c>
-      <c r="K17" t="s">
-        <v>193</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="X17" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37050</v>
       </c>
-      <c r="B18" t="n">
-        <v>44853</v>
-      </c>
-      <c r="C18" t="s">
-        <v>199</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
       <c r="R18" t="n">
         <v>3</v>
       </c>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>3</v>
@@ -3119,419 +3366,393 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="X18" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="Y18" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37050</v>
       </c>
-      <c r="B19" t="n">
-        <v>165233</v>
-      </c>
-      <c r="C19" t="s">
-        <v>208</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37050</v>
       </c>
-      <c r="B20" t="n">
-        <v>7545</v>
-      </c>
-      <c r="C20" t="s">
-        <v>217</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="X20" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="Y20" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37050</v>
       </c>
-      <c r="B21" t="n">
-        <v>7473</v>
-      </c>
-      <c r="C21" t="s">
-        <v>225</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>228</v>
-      </c>
-      <c r="K21" t="s">
-        <v>229</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="O21" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="Y21" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37050</v>
       </c>
-      <c r="B22" t="n">
-        <v>165234</v>
-      </c>
-      <c r="C22" t="s">
-        <v>232</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>235</v>
-      </c>
-      <c r="K22" t="s">
-        <v>236</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>191</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="X22" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="Y22" t="s">
-        <v>240</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37050</v>
       </c>
-      <c r="B23" t="n">
-        <v>165235</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="X23" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="Y23" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37050</v>
       </c>
-      <c r="B24" t="n">
-        <v>165236</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3540,598 +3761,560 @@
         <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="X24" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37050</v>
       </c>
-      <c r="B25" t="n">
-        <v>165237</v>
-      </c>
-      <c r="C25" t="s">
-        <v>258</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="Y25" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37050</v>
       </c>
-      <c r="B26" t="n">
-        <v>165238</v>
-      </c>
-      <c r="C26" t="s">
-        <v>266</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>3</v>
       </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="X26" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="Y26" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37050</v>
       </c>
-      <c r="B27" t="n">
-        <v>27535</v>
-      </c>
-      <c r="C27" t="s">
-        <v>276</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="X27" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="Y27" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37050</v>
       </c>
-      <c r="B28" t="n">
-        <v>165239</v>
-      </c>
-      <c r="C28" t="s">
-        <v>285</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
         <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="X28" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="Y28" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37050</v>
       </c>
-      <c r="B29" t="n">
-        <v>134343</v>
-      </c>
-      <c r="C29" t="s">
-        <v>293</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s">
-        <v>157</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="X29" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="Y29" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37050</v>
       </c>
-      <c r="B30" t="n">
-        <v>165240</v>
-      </c>
-      <c r="C30" t="s">
-        <v>303</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>306</v>
-      </c>
-      <c r="K30" t="s">
-        <v>307</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>308</v>
+        <v>86</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="X30" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="Y30" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37050</v>
       </c>
-      <c r="B31" t="n">
-        <v>165241</v>
-      </c>
-      <c r="C31" t="s">
-        <v>311</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="J31" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="X31" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="Y31" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37050</v>
       </c>
-      <c r="B32" t="n">
-        <v>9859</v>
-      </c>
-      <c r="C32" t="s">
-        <v>317</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="J32" t="s">
-        <v>320</v>
-      </c>
-      <c r="K32" t="s">
-        <v>321</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>322</v>
+        <v>86</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
         <v>4</v>
@@ -4141,920 +4324,896 @@
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="X32" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="Y32" t="s">
-        <v>325</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37050</v>
       </c>
-      <c r="B33" t="n">
-        <v>165242</v>
-      </c>
-      <c r="C33" t="s">
-        <v>326</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="J33" t="s">
-        <v>329</v>
-      </c>
-      <c r="K33" t="s">
-        <v>330</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>331</v>
+        <v>86</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="O33" t="s">
-        <v>332</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="Y33" t="s">
-        <v>333</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37050</v>
       </c>
-      <c r="B34" t="n">
-        <v>2415</v>
-      </c>
-      <c r="C34" t="s">
-        <v>334</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="J34" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="Y34" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37050</v>
       </c>
-      <c r="B35" t="n">
-        <v>165243</v>
-      </c>
-      <c r="C35" t="s">
-        <v>342</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="J35" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="O35" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="X35" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="Y35" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37050</v>
       </c>
-      <c r="B36" t="n">
-        <v>165244</v>
-      </c>
-      <c r="C36" t="s">
-        <v>352</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="J36" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="K36" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>359</v>
+        <v>261</v>
       </c>
       <c r="X36" t="s">
-        <v>360</v>
+        <v>262</v>
       </c>
       <c r="Y36" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37050</v>
       </c>
-      <c r="B37" t="n">
-        <v>165245</v>
-      </c>
-      <c r="C37" t="s">
-        <v>362</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>363</v>
+        <v>285</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>365</v>
-      </c>
-      <c r="K37" t="s"/>
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
       <c r="L37" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s">
-        <v>64</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>1</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="X37" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="Y37" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37050</v>
       </c>
-      <c r="B38" t="n">
-        <v>165246</v>
-      </c>
-      <c r="C38" t="s">
-        <v>368</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="J38" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="O38" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="X38" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
       <c r="Y38" t="s">
-        <v>376</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37050</v>
       </c>
-      <c r="B39" t="n">
-        <v>165247</v>
-      </c>
-      <c r="C39" t="s">
-        <v>377</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>378</v>
+        <v>299</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
       <c r="J39" t="s">
-        <v>380</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="O39" t="s">
-        <v>332</v>
+        <v>93</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="X39" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
       <c r="Y39" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37050</v>
       </c>
-      <c r="B40" t="n">
-        <v>134343</v>
-      </c>
-      <c r="C40" t="s">
-        <v>293</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="J40" t="s">
-        <v>386</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
       <c r="O40" t="s">
-        <v>157</v>
-      </c>
-      <c r="P40" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="X40" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="Y40" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37050</v>
       </c>
-      <c r="B41" t="n">
-        <v>165248</v>
-      </c>
-      <c r="C41" t="s">
-        <v>393</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>394</v>
+        <v>313</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>395</v>
+        <v>314</v>
       </c>
       <c r="J41" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="K41" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+        <v>191</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="X41" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="Y41" t="s">
-        <v>399</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37050</v>
       </c>
-      <c r="B42" t="n">
-        <v>165249</v>
-      </c>
-      <c r="C42" t="s">
-        <v>400</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>401</v>
+        <v>319</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>402</v>
+        <v>320</v>
       </c>
       <c r="J42" t="s">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="K42" t="s">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s">
-        <v>405</v>
+        <v>323</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>406</v>
+        <v>324</v>
       </c>
       <c r="O42" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="X42" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="Y42" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37050</v>
       </c>
-      <c r="B43" t="n">
-        <v>165250</v>
-      </c>
-      <c r="C43" t="s">
-        <v>408</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>409</v>
+        <v>326</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="J43" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>366</v>
+        <v>86</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>412</v>
+        <v>330</v>
       </c>
       <c r="X43" t="s">
-        <v>413</v>
+        <v>331</v>
       </c>
       <c r="Y43" t="s">
-        <v>367</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37050</v>
       </c>
-      <c r="B44" t="n">
-        <v>18857</v>
-      </c>
-      <c r="C44" t="s">
-        <v>414</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="J44" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="K44" t="s">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s">
-        <v>419</v>
+        <v>336</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>420</v>
+        <v>337</v>
       </c>
       <c r="O44" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>338</v>
+      </c>
+      <c r="X44" t="s">
+        <v>339</v>
+      </c>
       <c r="Y44" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37050</v>
       </c>
-      <c r="B45" t="n">
-        <v>165251</v>
-      </c>
-      <c r="C45" t="s">
-        <v>422</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="J45" t="s">
-        <v>425</v>
-      </c>
-      <c r="K45" t="s">
-        <v>426</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>427</v>
+        <v>86</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
-      <c r="P45" t="s"/>
+      <c r="N45" t="s">
+        <v>337</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
       <c r="Q45" t="n">
         <v>1</v>
       </c>
@@ -5071,138 +5230,2371 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>338</v>
+      </c>
+      <c r="X45" t="s">
+        <v>339</v>
+      </c>
       <c r="Y45" t="s">
-        <v>428</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37050</v>
       </c>
-      <c r="B46" t="n">
-        <v>165252</v>
-      </c>
-      <c r="C46" t="s">
-        <v>429</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>430</v>
+        <v>344</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>431</v>
+        <v>345</v>
       </c>
       <c r="J46" t="s">
-        <v>432</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>337</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>349</v>
+      </c>
+      <c r="X46" t="s">
+        <v>350</v>
+      </c>
       <c r="Y46" t="s">
-        <v>435</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37050</v>
       </c>
-      <c r="B47" t="n">
-        <v>165253</v>
-      </c>
-      <c r="C47" t="s">
-        <v>436</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>437</v>
+        <v>352</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="J47" t="s">
-        <v>439</v>
-      </c>
-      <c r="K47" t="s">
-        <v>440</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>441</v>
+        <v>86</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="O47" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>349</v>
+      </c>
+      <c r="X47" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>357</v>
+      </c>
+      <c r="J48" t="s">
+        <v>358</v>
+      </c>
+      <c r="K48" t="s">
+        <v>359</v>
+      </c>
+      <c r="L48" t="s">
+        <v>360</v>
+      </c>
+      <c r="M48" t="n">
         <v>2</v>
       </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s">
+      <c r="N48" t="s">
+        <v>361</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>362</v>
+      </c>
+      <c r="X48" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>366</v>
+      </c>
+      <c r="J49" t="s">
+        <v>367</v>
+      </c>
+      <c r="K49" t="s">
+        <v>368</v>
+      </c>
+      <c r="L49" t="s">
+        <v>369</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>370</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>371</v>
+      </c>
+      <c r="X49" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>375</v>
+      </c>
+      <c r="J50" t="s">
+        <v>376</v>
+      </c>
+      <c r="K50" t="s">
+        <v>377</v>
+      </c>
+      <c r="L50" t="s">
+        <v>378</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>379</v>
+      </c>
+      <c r="O50" t="s">
+        <v>191</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>380</v>
+      </c>
+      <c r="X50" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" t="s">
+        <v>385</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s">
+        <v>86</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>370</v>
+      </c>
+      <c r="O51" t="s">
+        <v>93</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>380</v>
+      </c>
+      <c r="X51" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>386</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>387</v>
+      </c>
+      <c r="J52" t="s">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s">
+        <v>388</v>
+      </c>
+      <c r="L52" t="s">
+        <v>389</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>370</v>
+      </c>
+      <c r="O52" t="s">
+        <v>93</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>380</v>
+      </c>
+      <c r="X52" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>392</v>
+      </c>
+      <c r="J53" t="s">
+        <v>393</v>
+      </c>
+      <c r="K53" t="s">
+        <v>394</v>
+      </c>
+      <c r="L53" t="s">
+        <v>395</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>370</v>
+      </c>
+      <c r="O53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>380</v>
+      </c>
+      <c r="X53" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>397</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>398</v>
+      </c>
+      <c r="J54" t="s">
+        <v>399</v>
+      </c>
+      <c r="K54" t="s">
+        <v>400</v>
+      </c>
+      <c r="L54" t="s">
+        <v>401</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>370</v>
+      </c>
+      <c r="O54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>380</v>
+      </c>
+      <c r="X54" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>403</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>404</v>
+      </c>
+      <c r="J55" t="s">
+        <v>405</v>
+      </c>
+      <c r="K55" t="s">
+        <v>406</v>
+      </c>
+      <c r="L55" t="s">
+        <v>407</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>379</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>408</v>
+      </c>
+      <c r="X55" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>411</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>412</v>
+      </c>
+      <c r="J56" t="s">
+        <v>413</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>379</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>408</v>
+      </c>
+      <c r="X56" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>414</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>415</v>
+      </c>
+      <c r="J57" t="s">
+        <v>413</v>
+      </c>
+      <c r="K57" t="s">
+        <v>416</v>
+      </c>
+      <c r="L57" t="s">
+        <v>417</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>379</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>418</v>
+      </c>
+      <c r="X57" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>421</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>422</v>
+      </c>
+      <c r="J58" t="s">
+        <v>423</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s">
+        <v>86</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>424</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>425</v>
+      </c>
+      <c r="X58" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>427</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>428</v>
+      </c>
+      <c r="J59" t="s">
+        <v>429</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>86</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>424</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>425</v>
+      </c>
+      <c r="X59" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>430</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>431</v>
+      </c>
+      <c r="J60" t="s">
+        <v>432</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s">
+        <v>86</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>424</v>
+      </c>
+      <c r="O60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>433</v>
+      </c>
+      <c r="X60" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>435</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>436</v>
+      </c>
+      <c r="J61" t="s">
+        <v>437</v>
+      </c>
+      <c r="K61" t="s">
+        <v>438</v>
+      </c>
+      <c r="L61" t="s">
+        <v>439</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>440</v>
+      </c>
+      <c r="O61" t="s">
+        <v>93</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
         <v>441</v>
+      </c>
+      <c r="X61" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>444</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>445</v>
+      </c>
+      <c r="J62" t="s">
+        <v>446</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s">
+        <v>86</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>440</v>
+      </c>
+      <c r="O62" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>433</v>
+      </c>
+      <c r="X62" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>447</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J63" t="s">
+        <v>449</v>
+      </c>
+      <c r="K63" t="s">
+        <v>450</v>
+      </c>
+      <c r="L63" t="s">
+        <v>451</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>440</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>452</v>
+      </c>
+      <c r="X63" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>455</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>456</v>
+      </c>
+      <c r="J64" t="s">
+        <v>457</v>
+      </c>
+      <c r="K64" t="s">
+        <v>458</v>
+      </c>
+      <c r="L64" t="s">
+        <v>459</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>440</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>452</v>
+      </c>
+      <c r="X64" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>461</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>462</v>
+      </c>
+      <c r="J65" t="s">
+        <v>463</v>
+      </c>
+      <c r="K65" t="s">
+        <v>464</v>
+      </c>
+      <c r="L65" t="s">
+        <v>465</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>440</v>
+      </c>
+      <c r="O65" t="s">
+        <v>87</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>452</v>
+      </c>
+      <c r="X65" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>467</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>468</v>
+      </c>
+      <c r="J66" t="s">
+        <v>469</v>
+      </c>
+      <c r="K66" t="s">
+        <v>470</v>
+      </c>
+      <c r="L66" t="s">
+        <v>471</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>440</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>452</v>
+      </c>
+      <c r="X66" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>473</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>474</v>
+      </c>
+      <c r="J67" t="s">
+        <v>475</v>
+      </c>
+      <c r="K67" t="s">
+        <v>476</v>
+      </c>
+      <c r="L67" t="s">
+        <v>477</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>478</v>
+      </c>
+      <c r="O67" t="s">
+        <v>191</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>479</v>
+      </c>
+      <c r="X67" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>482</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>483</v>
+      </c>
+      <c r="J68" t="s">
+        <v>484</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s">
+        <v>86</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>485</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>486</v>
+      </c>
+      <c r="X68" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>488</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>489</v>
+      </c>
+      <c r="J69" t="s">
+        <v>490</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s">
+        <v>86</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>485</v>
+      </c>
+      <c r="O69" t="s">
+        <v>87</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>452</v>
+      </c>
+      <c r="X69" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>491</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>492</v>
+      </c>
+      <c r="J70" t="s">
+        <v>493</v>
+      </c>
+      <c r="K70" t="s">
+        <v>494</v>
+      </c>
+      <c r="L70" t="s">
+        <v>495</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>478</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>452</v>
+      </c>
+      <c r="X70" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>497</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>498</v>
+      </c>
+      <c r="J71" t="s">
+        <v>499</v>
+      </c>
+      <c r="K71" t="s">
+        <v>500</v>
+      </c>
+      <c r="L71" t="s">
+        <v>501</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>502</v>
+      </c>
+      <c r="O71" t="s">
+        <v>191</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>452</v>
+      </c>
+      <c r="X71" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>504</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>505</v>
+      </c>
+      <c r="J72" t="s">
+        <v>506</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s">
+        <v>86</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>502</v>
+      </c>
+      <c r="O72" t="s">
+        <v>93</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>507</v>
+      </c>
+      <c r="X72" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>509</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>510</v>
+      </c>
+      <c r="J73" t="s">
+        <v>511</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>502</v>
+      </c>
+      <c r="O73" t="s">
+        <v>93</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>512</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>513</v>
+      </c>
+      <c r="J74" t="s">
+        <v>514</v>
+      </c>
+      <c r="K74" t="s">
+        <v>515</v>
+      </c>
+      <c r="L74" t="s">
+        <v>516</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>502</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>518</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>519</v>
+      </c>
+      <c r="J75" t="s">
+        <v>520</v>
+      </c>
+      <c r="K75" t="s">
+        <v>521</v>
+      </c>
+      <c r="L75" t="s">
+        <v>522</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>523</v>
+      </c>
+      <c r="O75" t="s">
+        <v>93</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>525</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>526</v>
+      </c>
+      <c r="J76" t="s">
+        <v>527</v>
+      </c>
+      <c r="K76" t="s">
+        <v>528</v>
+      </c>
+      <c r="L76" t="s">
+        <v>529</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>531</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>532</v>
+      </c>
+      <c r="J77" t="s">
+        <v>533</v>
+      </c>
+      <c r="K77" t="s">
+        <v>534</v>
+      </c>
+      <c r="L77" t="s">
+        <v>535</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>537</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>538</v>
+      </c>
+      <c r="J78" t="s">
+        <v>539</v>
+      </c>
+      <c r="K78" t="s">
+        <v>540</v>
+      </c>
+      <c r="L78" t="s">
+        <v>541</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>542</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>543</v>
+      </c>
+      <c r="J79" t="s">
+        <v>544</v>
+      </c>
+      <c r="K79" t="s">
+        <v>545</v>
+      </c>
+      <c r="L79" t="s">
+        <v>546</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>547</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37050</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>548</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>549</v>
+      </c>
+      <c r="J80" t="s">
+        <v>550</v>
+      </c>
+      <c r="K80" t="s">
+        <v>551</v>
+      </c>
+      <c r="L80" t="s">
+        <v>552</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>553</v>
+      </c>
+      <c r="O80" t="s">
+        <v>87</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
